--- a/ReporteMinsaDepartamento.xlsx
+++ b/ReporteMinsaDepartamento.xlsx
@@ -95703,6 +95703,2034 @@
         <v>44065</v>
       </c>
     </row>
+    <row r="3783">
+      <c r="A3783" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3783" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3783" t="n">
+        <v>96212</v>
+      </c>
+      <c r="D3783" t="n">
+        <v>169642</v>
+      </c>
+      <c r="E3783" t="n">
+        <v>265854</v>
+      </c>
+      <c r="F3783" t="n">
+        <v>11034</v>
+      </c>
+      <c r="G3783" t="n">
+        <v>1323739</v>
+      </c>
+      <c r="H3783" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3784" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3784" t="n">
+        <v>6718</v>
+      </c>
+      <c r="D3784" t="n">
+        <v>19279</v>
+      </c>
+      <c r="E3784" t="n">
+        <v>25997</v>
+      </c>
+      <c r="F3784" t="n">
+        <v>1521</v>
+      </c>
+      <c r="G3784" t="n">
+        <v>101132</v>
+      </c>
+      <c r="H3784" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3785" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3785" t="n">
+        <v>3140</v>
+      </c>
+      <c r="D3785" t="n">
+        <v>17686</v>
+      </c>
+      <c r="E3785" t="n">
+        <v>20826</v>
+      </c>
+      <c r="F3785" t="n">
+        <v>1991</v>
+      </c>
+      <c r="G3785" t="n">
+        <v>109307</v>
+      </c>
+      <c r="H3785" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3786" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3786" t="n">
+        <v>4153</v>
+      </c>
+      <c r="D3786" t="n">
+        <v>24785</v>
+      </c>
+      <c r="E3786" t="n">
+        <v>28938</v>
+      </c>
+      <c r="F3786" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G3786" t="n">
+        <v>174604</v>
+      </c>
+      <c r="H3786" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3787" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3787" t="n">
+        <v>387</v>
+      </c>
+      <c r="D3787" t="n">
+        <v>7384</v>
+      </c>
+      <c r="E3787" t="n">
+        <v>7771</v>
+      </c>
+      <c r="F3787" t="n">
+        <v>208</v>
+      </c>
+      <c r="G3787" t="n">
+        <v>53240</v>
+      </c>
+      <c r="H3787" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3788" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3788" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D3788" t="n">
+        <v>7290</v>
+      </c>
+      <c r="E3788" t="n">
+        <v>11974</v>
+      </c>
+      <c r="F3788" t="n">
+        <v>261</v>
+      </c>
+      <c r="G3788" t="n">
+        <v>73028</v>
+      </c>
+      <c r="H3788" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3789" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3789" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D3789" t="n">
+        <v>18783</v>
+      </c>
+      <c r="E3789" t="n">
+        <v>21095</v>
+      </c>
+      <c r="F3789" t="n">
+        <v>1571</v>
+      </c>
+      <c r="G3789" t="n">
+        <v>87518</v>
+      </c>
+      <c r="H3789" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3790" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3790" t="n">
+        <v>989</v>
+      </c>
+      <c r="D3790" t="n">
+        <v>25328</v>
+      </c>
+      <c r="E3790" t="n">
+        <v>26317</v>
+      </c>
+      <c r="F3790" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G3790" t="n">
+        <v>102896</v>
+      </c>
+      <c r="H3790" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3791" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3791" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3791" t="n">
+        <v>8478</v>
+      </c>
+      <c r="E3791" t="n">
+        <v>9471</v>
+      </c>
+      <c r="F3791" t="n">
+        <v>188</v>
+      </c>
+      <c r="G3791" t="n">
+        <v>47995</v>
+      </c>
+      <c r="H3791" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3792" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3792" t="n">
+        <v>2847</v>
+      </c>
+      <c r="D3792" t="n">
+        <v>15441</v>
+      </c>
+      <c r="E3792" t="n">
+        <v>18288</v>
+      </c>
+      <c r="F3792" t="n">
+        <v>1418</v>
+      </c>
+      <c r="G3792" t="n">
+        <v>93599</v>
+      </c>
+      <c r="H3792" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3793" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3793" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D3793" t="n">
+        <v>11221</v>
+      </c>
+      <c r="E3793" t="n">
+        <v>13208</v>
+      </c>
+      <c r="F3793" t="n">
+        <v>598</v>
+      </c>
+      <c r="G3793" t="n">
+        <v>78610</v>
+      </c>
+      <c r="H3793" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3794" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3794" t="n">
+        <v>3206</v>
+      </c>
+      <c r="D3794" t="n">
+        <v>13646</v>
+      </c>
+      <c r="E3794" t="n">
+        <v>16852</v>
+      </c>
+      <c r="F3794" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G3794" t="n">
+        <v>88700</v>
+      </c>
+      <c r="H3794" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3795" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3795" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D3795" t="n">
+        <v>10519</v>
+      </c>
+      <c r="E3795" t="n">
+        <v>13004</v>
+      </c>
+      <c r="F3795" t="n">
+        <v>369</v>
+      </c>
+      <c r="G3795" t="n">
+        <v>74739</v>
+      </c>
+      <c r="H3795" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3796" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3796" t="n">
+        <v>1174</v>
+      </c>
+      <c r="D3796" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E3796" t="n">
+        <v>10829</v>
+      </c>
+      <c r="F3796" t="n">
+        <v>312</v>
+      </c>
+      <c r="G3796" t="n">
+        <v>56395</v>
+      </c>
+      <c r="H3796" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3797" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3797" t="n">
+        <v>289</v>
+      </c>
+      <c r="D3797" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E3797" t="n">
+        <v>2284</v>
+      </c>
+      <c r="F3797" t="n">
+        <v>58</v>
+      </c>
+      <c r="G3797" t="n">
+        <v>33701</v>
+      </c>
+      <c r="H3797" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3798" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3798" t="n">
+        <v>578</v>
+      </c>
+      <c r="D3798" t="n">
+        <v>6662</v>
+      </c>
+      <c r="E3798" t="n">
+        <v>7240</v>
+      </c>
+      <c r="F3798" t="n">
+        <v>194</v>
+      </c>
+      <c r="G3798" t="n">
+        <v>51940</v>
+      </c>
+      <c r="H3798" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3799" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3799" t="n">
+        <v>1307</v>
+      </c>
+      <c r="D3799" t="n">
+        <v>5777</v>
+      </c>
+      <c r="E3799" t="n">
+        <v>7084</v>
+      </c>
+      <c r="F3799" t="n">
+        <v>122</v>
+      </c>
+      <c r="G3799" t="n">
+        <v>49612</v>
+      </c>
+      <c r="H3799" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3800" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3800" t="n">
+        <v>3128</v>
+      </c>
+      <c r="D3800" t="n">
+        <v>11234</v>
+      </c>
+      <c r="E3800" t="n">
+        <v>14362</v>
+      </c>
+      <c r="F3800" t="n">
+        <v>916</v>
+      </c>
+      <c r="G3800" t="n">
+        <v>47016</v>
+      </c>
+      <c r="H3800" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3801" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3801" t="n">
+        <v>2232</v>
+      </c>
+      <c r="D3801" t="n">
+        <v>10041</v>
+      </c>
+      <c r="E3801" t="n">
+        <v>12273</v>
+      </c>
+      <c r="F3801" t="n">
+        <v>650</v>
+      </c>
+      <c r="G3801" t="n">
+        <v>60172</v>
+      </c>
+      <c r="H3801" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3802">
+      <c r="A3802" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3802" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3802" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D3802" t="n">
+        <v>5102</v>
+      </c>
+      <c r="E3802" t="n">
+        <v>7085</v>
+      </c>
+      <c r="F3802" t="n">
+        <v>249</v>
+      </c>
+      <c r="G3802" t="n">
+        <v>39909</v>
+      </c>
+      <c r="H3802" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3803">
+      <c r="A3803" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3803" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3803" t="n">
+        <v>654</v>
+      </c>
+      <c r="D3803" t="n">
+        <v>3462</v>
+      </c>
+      <c r="E3803" t="n">
+        <v>4116</v>
+      </c>
+      <c r="F3803" t="n">
+        <v>68</v>
+      </c>
+      <c r="G3803" t="n">
+        <v>31002</v>
+      </c>
+      <c r="H3803" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3804">
+      <c r="A3804" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3804" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3804" t="n">
+        <v>227</v>
+      </c>
+      <c r="D3804" t="n">
+        <v>3192</v>
+      </c>
+      <c r="E3804" t="n">
+        <v>3419</v>
+      </c>
+      <c r="F3804" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3804" t="n">
+        <v>29568</v>
+      </c>
+      <c r="H3804" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3805">
+      <c r="A3805" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3805" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3805" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3805" t="n">
+        <v>4801</v>
+      </c>
+      <c r="E3805" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F3805" t="n">
+        <v>270</v>
+      </c>
+      <c r="G3805" t="n">
+        <v>24632</v>
+      </c>
+      <c r="H3805" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3806">
+      <c r="A3806" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3806" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3806" t="n">
+        <v>994</v>
+      </c>
+      <c r="D3806" t="n">
+        <v>11880</v>
+      </c>
+      <c r="E3806" t="n">
+        <v>12874</v>
+      </c>
+      <c r="F3806" t="n">
+        <v>288</v>
+      </c>
+      <c r="G3806" t="n">
+        <v>41682</v>
+      </c>
+      <c r="H3806" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3807">
+      <c r="A3807" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3807" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3807" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3807" t="n">
+        <v>4429</v>
+      </c>
+      <c r="E3807" t="n">
+        <v>5296</v>
+      </c>
+      <c r="F3807" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3807" t="n">
+        <v>27211</v>
+      </c>
+      <c r="H3807" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3808">
+      <c r="A3808" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3808" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3808" t="n">
+        <v>5254</v>
+      </c>
+      <c r="D3808" t="n">
+        <v>17166</v>
+      </c>
+      <c r="E3808" t="n">
+        <v>22420</v>
+      </c>
+      <c r="F3808" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G3808" t="n">
+        <v>83835</v>
+      </c>
+      <c r="H3808" s="1" t="n">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="3809">
+      <c r="A3809" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3809" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3809" t="n">
+        <v>97091</v>
+      </c>
+      <c r="D3809" t="n">
+        <v>170906</v>
+      </c>
+      <c r="E3809" t="n">
+        <v>267997</v>
+      </c>
+      <c r="F3809" t="n">
+        <v>11103</v>
+      </c>
+      <c r="G3809" t="n">
+        <v>1332587</v>
+      </c>
+      <c r="H3809" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3810">
+      <c r="A3810" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3810" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3810" t="n">
+        <v>6724</v>
+      </c>
+      <c r="D3810" t="n">
+        <v>19346</v>
+      </c>
+      <c r="E3810" t="n">
+        <v>26070</v>
+      </c>
+      <c r="F3810" t="n">
+        <v>1528</v>
+      </c>
+      <c r="G3810" t="n">
+        <v>101399</v>
+      </c>
+      <c r="H3810" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3811">
+      <c r="A3811" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3811" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3811" t="n">
+        <v>3145</v>
+      </c>
+      <c r="D3811" t="n">
+        <v>17908</v>
+      </c>
+      <c r="E3811" t="n">
+        <v>21053</v>
+      </c>
+      <c r="F3811" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G3811" t="n">
+        <v>109895</v>
+      </c>
+      <c r="H3811" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3812">
+      <c r="A3812" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3812" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3812" t="n">
+        <v>4153</v>
+      </c>
+      <c r="D3812" t="n">
+        <v>25349</v>
+      </c>
+      <c r="E3812" t="n">
+        <v>29502</v>
+      </c>
+      <c r="F3812" t="n">
+        <v>1083</v>
+      </c>
+      <c r="G3812" t="n">
+        <v>176238</v>
+      </c>
+      <c r="H3812" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3813">
+      <c r="A3813" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3813" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3813" t="n">
+        <v>387</v>
+      </c>
+      <c r="D3813" t="n">
+        <v>7513</v>
+      </c>
+      <c r="E3813" t="n">
+        <v>7900</v>
+      </c>
+      <c r="F3813" t="n">
+        <v>212</v>
+      </c>
+      <c r="G3813" t="n">
+        <v>53603</v>
+      </c>
+      <c r="H3813" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3814">
+      <c r="A3814" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3814" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D3814" t="n">
+        <v>7638</v>
+      </c>
+      <c r="E3814" t="n">
+        <v>12322</v>
+      </c>
+      <c r="F3814" t="n">
+        <v>264</v>
+      </c>
+      <c r="G3814" t="n">
+        <v>74157</v>
+      </c>
+      <c r="H3814" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3815">
+      <c r="A3815" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3815" t="n">
+        <v>2323</v>
+      </c>
+      <c r="D3815" t="n">
+        <v>18881</v>
+      </c>
+      <c r="E3815" t="n">
+        <v>21204</v>
+      </c>
+      <c r="F3815" t="n">
+        <v>1573</v>
+      </c>
+      <c r="G3815" t="n">
+        <v>88039</v>
+      </c>
+      <c r="H3815" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3816">
+      <c r="A3816" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3816" t="n">
+        <v>992</v>
+      </c>
+      <c r="D3816" t="n">
+        <v>25460</v>
+      </c>
+      <c r="E3816" t="n">
+        <v>26452</v>
+      </c>
+      <c r="F3816" t="n">
+        <v>1787</v>
+      </c>
+      <c r="G3816" t="n">
+        <v>103350</v>
+      </c>
+      <c r="H3816" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3817">
+      <c r="A3817" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3817" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3817" t="n">
+        <v>8629</v>
+      </c>
+      <c r="E3817" t="n">
+        <v>9622</v>
+      </c>
+      <c r="F3817" t="n">
+        <v>188</v>
+      </c>
+      <c r="G3817" t="n">
+        <v>48417</v>
+      </c>
+      <c r="H3817" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3818">
+      <c r="A3818" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3818" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D3818" t="n">
+        <v>15683</v>
+      </c>
+      <c r="E3818" t="n">
+        <v>18531</v>
+      </c>
+      <c r="F3818" t="n">
+        <v>1421</v>
+      </c>
+      <c r="G3818" t="n">
+        <v>94452</v>
+      </c>
+      <c r="H3818" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3819">
+      <c r="A3819" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3819" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D3819" t="n">
+        <v>11406</v>
+      </c>
+      <c r="E3819" t="n">
+        <v>13400</v>
+      </c>
+      <c r="F3819" t="n">
+        <v>603</v>
+      </c>
+      <c r="G3819" t="n">
+        <v>79428</v>
+      </c>
+      <c r="H3819" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3820">
+      <c r="A3820" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3820" t="n">
+        <v>3208</v>
+      </c>
+      <c r="D3820" t="n">
+        <v>13741</v>
+      </c>
+      <c r="E3820" t="n">
+        <v>16949</v>
+      </c>
+      <c r="F3820" t="n">
+        <v>1134</v>
+      </c>
+      <c r="G3820" t="n">
+        <v>89195</v>
+      </c>
+      <c r="H3820" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3821">
+      <c r="A3821" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3821" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D3821" t="n">
+        <v>10967</v>
+      </c>
+      <c r="E3821" t="n">
+        <v>13452</v>
+      </c>
+      <c r="F3821" t="n">
+        <v>373</v>
+      </c>
+      <c r="G3821" t="n">
+        <v>75659</v>
+      </c>
+      <c r="H3821" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3822">
+      <c r="A3822" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3822" t="n">
+        <v>1174</v>
+      </c>
+      <c r="D3822" t="n">
+        <v>9757</v>
+      </c>
+      <c r="E3822" t="n">
+        <v>10931</v>
+      </c>
+      <c r="F3822" t="n">
+        <v>316</v>
+      </c>
+      <c r="G3822" t="n">
+        <v>56733</v>
+      </c>
+      <c r="H3822" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3823">
+      <c r="A3823" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3823" t="n">
+        <v>289</v>
+      </c>
+      <c r="D3823" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E3823" t="n">
+        <v>2307</v>
+      </c>
+      <c r="F3823" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3823" t="n">
+        <v>34015</v>
+      </c>
+      <c r="H3823" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3824">
+      <c r="A3824" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3824" t="n">
+        <v>578</v>
+      </c>
+      <c r="D3824" t="n">
+        <v>6814</v>
+      </c>
+      <c r="E3824" t="n">
+        <v>7392</v>
+      </c>
+      <c r="F3824" t="n">
+        <v>203</v>
+      </c>
+      <c r="G3824" t="n">
+        <v>52594</v>
+      </c>
+      <c r="H3824" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3825">
+      <c r="A3825" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3825" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D3825" t="n">
+        <v>5964</v>
+      </c>
+      <c r="E3825" t="n">
+        <v>7290</v>
+      </c>
+      <c r="F3825" t="n">
+        <v>123</v>
+      </c>
+      <c r="G3825" t="n">
+        <v>50133</v>
+      </c>
+      <c r="H3825" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3826">
+      <c r="A3826" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3826" t="n">
+        <v>3128</v>
+      </c>
+      <c r="D3826" t="n">
+        <v>11358</v>
+      </c>
+      <c r="E3826" t="n">
+        <v>14486</v>
+      </c>
+      <c r="F3826" t="n">
+        <v>919</v>
+      </c>
+      <c r="G3826" t="n">
+        <v>47205</v>
+      </c>
+      <c r="H3826" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3827">
+      <c r="A3827" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3827" t="n">
+        <v>2256</v>
+      </c>
+      <c r="D3827" t="n">
+        <v>10204</v>
+      </c>
+      <c r="E3827" t="n">
+        <v>12460</v>
+      </c>
+      <c r="F3827" t="n">
+        <v>650</v>
+      </c>
+      <c r="G3827" t="n">
+        <v>60586</v>
+      </c>
+      <c r="H3827" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3828">
+      <c r="A3828" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3828" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D3828" t="n">
+        <v>5165</v>
+      </c>
+      <c r="E3828" t="n">
+        <v>7148</v>
+      </c>
+      <c r="F3828" t="n">
+        <v>249</v>
+      </c>
+      <c r="G3828" t="n">
+        <v>40095</v>
+      </c>
+      <c r="H3828" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3829">
+      <c r="A3829" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3829" t="n">
+        <v>654</v>
+      </c>
+      <c r="D3829" t="n">
+        <v>3540</v>
+      </c>
+      <c r="E3829" t="n">
+        <v>4194</v>
+      </c>
+      <c r="F3829" t="n">
+        <v>72</v>
+      </c>
+      <c r="G3829" t="n">
+        <v>31198</v>
+      </c>
+      <c r="H3829" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3830">
+      <c r="A3830" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3830" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3830" t="n">
+        <v>3216</v>
+      </c>
+      <c r="E3830" t="n">
+        <v>3444</v>
+      </c>
+      <c r="F3830" t="n">
+        <v>81</v>
+      </c>
+      <c r="G3830" t="n">
+        <v>29697</v>
+      </c>
+      <c r="H3830" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3831">
+      <c r="A3831" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3831" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3831" t="n">
+        <v>4820</v>
+      </c>
+      <c r="E3831" t="n">
+        <v>5468</v>
+      </c>
+      <c r="F3831" t="n">
+        <v>271</v>
+      </c>
+      <c r="G3831" t="n">
+        <v>24722</v>
+      </c>
+      <c r="H3831" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3832">
+      <c r="A3832" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3832" t="n">
+        <v>994</v>
+      </c>
+      <c r="D3832" t="n">
+        <v>11957</v>
+      </c>
+      <c r="E3832" t="n">
+        <v>12951</v>
+      </c>
+      <c r="F3832" t="n">
+        <v>289</v>
+      </c>
+      <c r="G3832" t="n">
+        <v>41870</v>
+      </c>
+      <c r="H3832" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3833">
+      <c r="A3833" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3833" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3833" t="n">
+        <v>4515</v>
+      </c>
+      <c r="E3833" t="n">
+        <v>5382</v>
+      </c>
+      <c r="F3833" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3833" t="n">
+        <v>27433</v>
+      </c>
+      <c r="H3833" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3834">
+      <c r="A3834" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3834" t="n">
+        <v>5288</v>
+      </c>
+      <c r="D3834" t="n">
+        <v>17243</v>
+      </c>
+      <c r="E3834" t="n">
+        <v>22531</v>
+      </c>
+      <c r="F3834" t="n">
+        <v>1184</v>
+      </c>
+      <c r="G3834" t="n">
+        <v>84293</v>
+      </c>
+      <c r="H3834" s="1" t="n">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3835">
+      <c r="A3835" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3835" t="n">
+        <v>98093</v>
+      </c>
+      <c r="D3835" t="n">
+        <v>172450</v>
+      </c>
+      <c r="E3835" t="n">
+        <v>270543</v>
+      </c>
+      <c r="F3835" t="n">
+        <v>11194</v>
+      </c>
+      <c r="G3835" t="n">
+        <v>1341940</v>
+      </c>
+      <c r="H3835" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3836">
+      <c r="A3836" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3836" t="n">
+        <v>6787</v>
+      </c>
+      <c r="D3836" t="n">
+        <v>19559</v>
+      </c>
+      <c r="E3836" t="n">
+        <v>26346</v>
+      </c>
+      <c r="F3836" t="n">
+        <v>1534</v>
+      </c>
+      <c r="G3836" t="n">
+        <v>102283</v>
+      </c>
+      <c r="H3836" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3837">
+      <c r="A3837" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3837" t="n">
+        <v>3172</v>
+      </c>
+      <c r="D3837" t="n">
+        <v>18089</v>
+      </c>
+      <c r="E3837" t="n">
+        <v>21261</v>
+      </c>
+      <c r="F3837" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G3837" t="n">
+        <v>110537</v>
+      </c>
+      <c r="H3837" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3838">
+      <c r="A3838" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3838" t="n">
+        <v>4172</v>
+      </c>
+      <c r="D3838" t="n">
+        <v>25685</v>
+      </c>
+      <c r="E3838" t="n">
+        <v>29857</v>
+      </c>
+      <c r="F3838" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G3838" t="n">
+        <v>177923</v>
+      </c>
+      <c r="H3838" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3839">
+      <c r="A3839" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3839" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3839" t="n">
+        <v>7682</v>
+      </c>
+      <c r="E3839" t="n">
+        <v>8098</v>
+      </c>
+      <c r="F3839" t="n">
+        <v>214</v>
+      </c>
+      <c r="G3839" t="n">
+        <v>54329</v>
+      </c>
+      <c r="H3839" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3840" t="n">
+        <v>4734</v>
+      </c>
+      <c r="D3840" t="n">
+        <v>7914</v>
+      </c>
+      <c r="E3840" t="n">
+        <v>12648</v>
+      </c>
+      <c r="F3840" t="n">
+        <v>273</v>
+      </c>
+      <c r="G3840" t="n">
+        <v>75367</v>
+      </c>
+      <c r="H3840" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3841">
+      <c r="A3841" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3841" t="n">
+        <v>2326</v>
+      </c>
+      <c r="D3841" t="n">
+        <v>18984</v>
+      </c>
+      <c r="E3841" t="n">
+        <v>21310</v>
+      </c>
+      <c r="F3841" t="n">
+        <v>1575</v>
+      </c>
+      <c r="G3841" t="n">
+        <v>88487</v>
+      </c>
+      <c r="H3841" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3842">
+      <c r="A3842" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3842" t="n">
+        <v>992</v>
+      </c>
+      <c r="D3842" t="n">
+        <v>25840</v>
+      </c>
+      <c r="E3842" t="n">
+        <v>26832</v>
+      </c>
+      <c r="F3842" t="n">
+        <v>1791</v>
+      </c>
+      <c r="G3842" t="n">
+        <v>104614</v>
+      </c>
+      <c r="H3842" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3843">
+      <c r="A3843" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3843" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3843" t="n">
+        <v>8767</v>
+      </c>
+      <c r="E3843" t="n">
+        <v>9760</v>
+      </c>
+      <c r="F3843" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3843" t="n">
+        <v>49017</v>
+      </c>
+      <c r="H3843" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3844">
+      <c r="A3844" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3844" t="n">
+        <v>2875</v>
+      </c>
+      <c r="D3844" t="n">
+        <v>15958</v>
+      </c>
+      <c r="E3844" t="n">
+        <v>18833</v>
+      </c>
+      <c r="F3844" t="n">
+        <v>1426</v>
+      </c>
+      <c r="G3844" t="n">
+        <v>95534</v>
+      </c>
+      <c r="H3844" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3845">
+      <c r="A3845" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3845" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D3845" t="n">
+        <v>11561</v>
+      </c>
+      <c r="E3845" t="n">
+        <v>13555</v>
+      </c>
+      <c r="F3845" t="n">
+        <v>611</v>
+      </c>
+      <c r="G3845" t="n">
+        <v>80215</v>
+      </c>
+      <c r="H3845" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3846">
+      <c r="A3846" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3846" t="n">
+        <v>3247</v>
+      </c>
+      <c r="D3846" t="n">
+        <v>13923</v>
+      </c>
+      <c r="E3846" t="n">
+        <v>17170</v>
+      </c>
+      <c r="F3846" t="n">
+        <v>1138</v>
+      </c>
+      <c r="G3846" t="n">
+        <v>90137</v>
+      </c>
+      <c r="H3846" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3847">
+      <c r="A3847" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3847" t="n">
+        <v>2489</v>
+      </c>
+      <c r="D3847" t="n">
+        <v>11165</v>
+      </c>
+      <c r="E3847" t="n">
+        <v>13654</v>
+      </c>
+      <c r="F3847" t="n">
+        <v>375</v>
+      </c>
+      <c r="G3847" t="n">
+        <v>76481</v>
+      </c>
+      <c r="H3847" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3848">
+      <c r="A3848" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3848" t="n">
+        <v>1174</v>
+      </c>
+      <c r="D3848" t="n">
+        <v>9931</v>
+      </c>
+      <c r="E3848" t="n">
+        <v>11105</v>
+      </c>
+      <c r="F3848" t="n">
+        <v>318</v>
+      </c>
+      <c r="G3848" t="n">
+        <v>57357</v>
+      </c>
+      <c r="H3848" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3849">
+      <c r="A3849" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3849" t="n">
+        <v>289</v>
+      </c>
+      <c r="D3849" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E3849" t="n">
+        <v>2387</v>
+      </c>
+      <c r="F3849" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3849" t="n">
+        <v>34421</v>
+      </c>
+      <c r="H3849" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3850">
+      <c r="A3850" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3850" t="n">
+        <v>578</v>
+      </c>
+      <c r="D3850" t="n">
+        <v>6958</v>
+      </c>
+      <c r="E3850" t="n">
+        <v>7536</v>
+      </c>
+      <c r="F3850" t="n">
+        <v>207</v>
+      </c>
+      <c r="G3850" t="n">
+        <v>53248</v>
+      </c>
+      <c r="H3850" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3851">
+      <c r="A3851" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3851" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D3851" t="n">
+        <v>6220</v>
+      </c>
+      <c r="E3851" t="n">
+        <v>7550</v>
+      </c>
+      <c r="F3851" t="n">
+        <v>126</v>
+      </c>
+      <c r="G3851" t="n">
+        <v>50630</v>
+      </c>
+      <c r="H3851" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3852">
+      <c r="A3852" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3852" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D3852" t="n">
+        <v>11464</v>
+      </c>
+      <c r="E3852" t="n">
+        <v>14593</v>
+      </c>
+      <c r="F3852" t="n">
+        <v>919</v>
+      </c>
+      <c r="G3852" t="n">
+        <v>47494</v>
+      </c>
+      <c r="H3852" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3853">
+      <c r="A3853" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3853" t="n">
+        <v>2285</v>
+      </c>
+      <c r="D3853" t="n">
+        <v>10316</v>
+      </c>
+      <c r="E3853" t="n">
+        <v>12601</v>
+      </c>
+      <c r="F3853" t="n">
+        <v>652</v>
+      </c>
+      <c r="G3853" t="n">
+        <v>61021</v>
+      </c>
+      <c r="H3853" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3854">
+      <c r="A3854" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3854" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D3854" t="n">
+        <v>5266</v>
+      </c>
+      <c r="E3854" t="n">
+        <v>7263</v>
+      </c>
+      <c r="F3854" t="n">
+        <v>251</v>
+      </c>
+      <c r="G3854" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H3854" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3855">
+      <c r="A3855" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3855" t="n">
+        <v>674</v>
+      </c>
+      <c r="D3855" t="n">
+        <v>3584</v>
+      </c>
+      <c r="E3855" t="n">
+        <v>4258</v>
+      </c>
+      <c r="F3855" t="n">
+        <v>76</v>
+      </c>
+      <c r="G3855" t="n">
+        <v>31535</v>
+      </c>
+      <c r="H3855" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3856">
+      <c r="A3856" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3856" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3856" t="n">
+        <v>3258</v>
+      </c>
+      <c r="E3856" t="n">
+        <v>3486</v>
+      </c>
+      <c r="F3856" t="n">
+        <v>82</v>
+      </c>
+      <c r="G3856" t="n">
+        <v>29881</v>
+      </c>
+      <c r="H3856" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3857">
+      <c r="A3857" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3857" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3857" t="n">
+        <v>4884</v>
+      </c>
+      <c r="E3857" t="n">
+        <v>5532</v>
+      </c>
+      <c r="F3857" t="n">
+        <v>272</v>
+      </c>
+      <c r="G3857" t="n">
+        <v>24976</v>
+      </c>
+      <c r="H3857" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3858">
+      <c r="A3858" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3858" t="n">
+        <v>995</v>
+      </c>
+      <c r="D3858" t="n">
+        <v>12050</v>
+      </c>
+      <c r="E3858" t="n">
+        <v>13045</v>
+      </c>
+      <c r="F3858" t="n">
+        <v>289</v>
+      </c>
+      <c r="G3858" t="n">
+        <v>42203</v>
+      </c>
+      <c r="H3858" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3859">
+      <c r="A3859" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3859" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3859" t="n">
+        <v>4582</v>
+      </c>
+      <c r="E3859" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F3859" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3859" t="n">
+        <v>27695</v>
+      </c>
+      <c r="H3859" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="3860">
+      <c r="A3860" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3860" t="n">
+        <v>5288</v>
+      </c>
+      <c r="D3860" t="n">
+        <v>17422</v>
+      </c>
+      <c r="E3860" t="n">
+        <v>22710</v>
+      </c>
+      <c r="F3860" t="n">
+        <v>1192</v>
+      </c>
+      <c r="G3860" t="n">
+        <v>84936</v>
+      </c>
+      <c r="H3860" s="1" t="n">
+        <v>44068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/ReporteMinsaDepartamento.xlsx
+++ b/ReporteMinsaDepartamento.xlsx
@@ -97731,6 +97731,3386 @@
         <v>44068</v>
       </c>
     </row>
+    <row r="3861">
+      <c r="A3861" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3861" t="n">
+        <v>98638</v>
+      </c>
+      <c r="D3861" t="n">
+        <v>173585</v>
+      </c>
+      <c r="E3861" t="n">
+        <v>272223</v>
+      </c>
+      <c r="F3861" t="n">
+        <v>11245</v>
+      </c>
+      <c r="G3861" t="n">
+        <v>1348709</v>
+      </c>
+      <c r="H3861" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3862">
+      <c r="A3862" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3862" t="n">
+        <v>6789</v>
+      </c>
+      <c r="D3862" t="n">
+        <v>19682</v>
+      </c>
+      <c r="E3862" t="n">
+        <v>26471</v>
+      </c>
+      <c r="F3862" t="n">
+        <v>1540</v>
+      </c>
+      <c r="G3862" t="n">
+        <v>102691</v>
+      </c>
+      <c r="H3862" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3863">
+      <c r="A3863" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3863" t="n">
+        <v>3176</v>
+      </c>
+      <c r="D3863" t="n">
+        <v>18262</v>
+      </c>
+      <c r="E3863" t="n">
+        <v>21438</v>
+      </c>
+      <c r="F3863" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G3863" t="n">
+        <v>111137</v>
+      </c>
+      <c r="H3863" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3864">
+      <c r="A3864" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3864" t="n">
+        <v>4183</v>
+      </c>
+      <c r="D3864" t="n">
+        <v>26258</v>
+      </c>
+      <c r="E3864" t="n">
+        <v>30441</v>
+      </c>
+      <c r="F3864" t="n">
+        <v>1106</v>
+      </c>
+      <c r="G3864" t="n">
+        <v>180410</v>
+      </c>
+      <c r="H3864" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3865">
+      <c r="A3865" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3865" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3865" t="n">
+        <v>7823</v>
+      </c>
+      <c r="E3865" t="n">
+        <v>8239</v>
+      </c>
+      <c r="F3865" t="n">
+        <v>220</v>
+      </c>
+      <c r="G3865" t="n">
+        <v>54854</v>
+      </c>
+      <c r="H3865" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3866">
+      <c r="A3866" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3866" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D3866" t="n">
+        <v>8138</v>
+      </c>
+      <c r="E3866" t="n">
+        <v>12920</v>
+      </c>
+      <c r="F3866" t="n">
+        <v>280</v>
+      </c>
+      <c r="G3866" t="n">
+        <v>76391</v>
+      </c>
+      <c r="H3866" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3867">
+      <c r="A3867" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3867" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D3867" t="n">
+        <v>19084</v>
+      </c>
+      <c r="E3867" t="n">
+        <v>21420</v>
+      </c>
+      <c r="F3867" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G3867" t="n">
+        <v>88958</v>
+      </c>
+      <c r="H3867" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3868">
+      <c r="A3868" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3868" t="n">
+        <v>992</v>
+      </c>
+      <c r="D3868" t="n">
+        <v>26126</v>
+      </c>
+      <c r="E3868" t="n">
+        <v>27118</v>
+      </c>
+      <c r="F3868" t="n">
+        <v>1799</v>
+      </c>
+      <c r="G3868" t="n">
+        <v>105566</v>
+      </c>
+      <c r="H3868" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3869">
+      <c r="A3869" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3869" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3869" t="n">
+        <v>8975</v>
+      </c>
+      <c r="E3869" t="n">
+        <v>9968</v>
+      </c>
+      <c r="F3869" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3869" t="n">
+        <v>49918</v>
+      </c>
+      <c r="H3869" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3870">
+      <c r="A3870" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3870" t="n">
+        <v>2904</v>
+      </c>
+      <c r="D3870" t="n">
+        <v>16325</v>
+      </c>
+      <c r="E3870" t="n">
+        <v>19229</v>
+      </c>
+      <c r="F3870" t="n">
+        <v>1429</v>
+      </c>
+      <c r="G3870" t="n">
+        <v>96957</v>
+      </c>
+      <c r="H3870" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3871">
+      <c r="A3871" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3871" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D3871" t="n">
+        <v>11741</v>
+      </c>
+      <c r="E3871" t="n">
+        <v>13736</v>
+      </c>
+      <c r="F3871" t="n">
+        <v>614</v>
+      </c>
+      <c r="G3871" t="n">
+        <v>81094</v>
+      </c>
+      <c r="H3871" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3872">
+      <c r="A3872" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3872" t="n">
+        <v>3274</v>
+      </c>
+      <c r="D3872" t="n">
+        <v>14040</v>
+      </c>
+      <c r="E3872" t="n">
+        <v>17314</v>
+      </c>
+      <c r="F3872" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G3872" t="n">
+        <v>90750</v>
+      </c>
+      <c r="H3872" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3873">
+      <c r="A3873" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3873" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D3873" t="n">
+        <v>11365</v>
+      </c>
+      <c r="E3873" t="n">
+        <v>13860</v>
+      </c>
+      <c r="F3873" t="n">
+        <v>377</v>
+      </c>
+      <c r="G3873" t="n">
+        <v>77381</v>
+      </c>
+      <c r="H3873" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3874">
+      <c r="A3874" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3874" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D3874" t="n">
+        <v>10052</v>
+      </c>
+      <c r="E3874" t="n">
+        <v>11234</v>
+      </c>
+      <c r="F3874" t="n">
+        <v>319</v>
+      </c>
+      <c r="G3874" t="n">
+        <v>57864</v>
+      </c>
+      <c r="H3874" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3875">
+      <c r="A3875" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3875" t="n">
+        <v>294</v>
+      </c>
+      <c r="D3875" t="n">
+        <v>2154</v>
+      </c>
+      <c r="E3875" t="n">
+        <v>2448</v>
+      </c>
+      <c r="F3875" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3875" t="n">
+        <v>34695</v>
+      </c>
+      <c r="H3875" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3876">
+      <c r="A3876" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3876" t="n">
+        <v>578</v>
+      </c>
+      <c r="D3876" t="n">
+        <v>7123</v>
+      </c>
+      <c r="E3876" t="n">
+        <v>7701</v>
+      </c>
+      <c r="F3876" t="n">
+        <v>211</v>
+      </c>
+      <c r="G3876" t="n">
+        <v>53957</v>
+      </c>
+      <c r="H3876" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3877">
+      <c r="A3877" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3877" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D3877" t="n">
+        <v>6447</v>
+      </c>
+      <c r="E3877" t="n">
+        <v>7786</v>
+      </c>
+      <c r="F3877" t="n">
+        <v>126</v>
+      </c>
+      <c r="G3877" t="n">
+        <v>51076</v>
+      </c>
+      <c r="H3877" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3878">
+      <c r="A3878" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3878" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D3878" t="n">
+        <v>11551</v>
+      </c>
+      <c r="E3878" t="n">
+        <v>14680</v>
+      </c>
+      <c r="F3878" t="n">
+        <v>919</v>
+      </c>
+      <c r="G3878" t="n">
+        <v>47729</v>
+      </c>
+      <c r="H3878" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3879">
+      <c r="A3879" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3879" t="n">
+        <v>2285</v>
+      </c>
+      <c r="D3879" t="n">
+        <v>10467</v>
+      </c>
+      <c r="E3879" t="n">
+        <v>12752</v>
+      </c>
+      <c r="F3879" t="n">
+        <v>654</v>
+      </c>
+      <c r="G3879" t="n">
+        <v>61479</v>
+      </c>
+      <c r="H3879" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3880">
+      <c r="A3880" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3880" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D3880" t="n">
+        <v>5372</v>
+      </c>
+      <c r="E3880" t="n">
+        <v>7407</v>
+      </c>
+      <c r="F3880" t="n">
+        <v>253</v>
+      </c>
+      <c r="G3880" t="n">
+        <v>40950</v>
+      </c>
+      <c r="H3880" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3881">
+      <c r="A3881" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3881" t="n">
+        <v>674</v>
+      </c>
+      <c r="D3881" t="n">
+        <v>3667</v>
+      </c>
+      <c r="E3881" t="n">
+        <v>4341</v>
+      </c>
+      <c r="F3881" t="n">
+        <v>76</v>
+      </c>
+      <c r="G3881" t="n">
+        <v>31919</v>
+      </c>
+      <c r="H3881" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3882">
+      <c r="A3882" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3882" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3882" t="n">
+        <v>3298</v>
+      </c>
+      <c r="E3882" t="n">
+        <v>3526</v>
+      </c>
+      <c r="F3882" t="n">
+        <v>82</v>
+      </c>
+      <c r="G3882" t="n">
+        <v>30057</v>
+      </c>
+      <c r="H3882" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3883">
+      <c r="A3883" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3883" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3883" t="n">
+        <v>4908</v>
+      </c>
+      <c r="E3883" t="n">
+        <v>5556</v>
+      </c>
+      <c r="F3883" t="n">
+        <v>273</v>
+      </c>
+      <c r="G3883" t="n">
+        <v>25072</v>
+      </c>
+      <c r="H3883" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3884">
+      <c r="A3884" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3884" t="n">
+        <v>995</v>
+      </c>
+      <c r="D3884" t="n">
+        <v>12159</v>
+      </c>
+      <c r="E3884" t="n">
+        <v>13154</v>
+      </c>
+      <c r="F3884" t="n">
+        <v>292</v>
+      </c>
+      <c r="G3884" t="n">
+        <v>42582</v>
+      </c>
+      <c r="H3884" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3885">
+      <c r="A3885" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3885" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3885" t="n">
+        <v>4666</v>
+      </c>
+      <c r="E3885" t="n">
+        <v>5533</v>
+      </c>
+      <c r="F3885" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3885" t="n">
+        <v>28023</v>
+      </c>
+      <c r="H3885" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3886">
+      <c r="A3886" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3886" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D3886" t="n">
+        <v>17593</v>
+      </c>
+      <c r="E3886" t="n">
+        <v>22883</v>
+      </c>
+      <c r="F3886" t="n">
+        <v>1196</v>
+      </c>
+      <c r="G3886" t="n">
+        <v>85631</v>
+      </c>
+      <c r="H3886" s="1" t="n">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="3887">
+      <c r="A3887" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3887" t="n">
+        <v>99732</v>
+      </c>
+      <c r="D3887" t="n">
+        <v>175234</v>
+      </c>
+      <c r="E3887" t="n">
+        <v>274966</v>
+      </c>
+      <c r="F3887" t="n">
+        <v>11315</v>
+      </c>
+      <c r="G3887" t="n">
+        <v>1360268</v>
+      </c>
+      <c r="H3887" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3888">
+      <c r="A3888" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3888" t="n">
+        <v>6814</v>
+      </c>
+      <c r="D3888" t="n">
+        <v>19895</v>
+      </c>
+      <c r="E3888" t="n">
+        <v>26709</v>
+      </c>
+      <c r="F3888" t="n">
+        <v>1546</v>
+      </c>
+      <c r="G3888" t="n">
+        <v>103427</v>
+      </c>
+      <c r="H3888" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3889">
+      <c r="A3889" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3889" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D3889" t="n">
+        <v>18484</v>
+      </c>
+      <c r="E3889" t="n">
+        <v>21693</v>
+      </c>
+      <c r="F3889" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G3889" t="n">
+        <v>111903</v>
+      </c>
+      <c r="H3889" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3890">
+      <c r="A3890" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3890" t="n">
+        <v>4261</v>
+      </c>
+      <c r="D3890" t="n">
+        <v>26736</v>
+      </c>
+      <c r="E3890" t="n">
+        <v>30997</v>
+      </c>
+      <c r="F3890" t="n">
+        <v>1121</v>
+      </c>
+      <c r="G3890" t="n">
+        <v>182650</v>
+      </c>
+      <c r="H3890" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3891">
+      <c r="A3891" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3891" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3891" t="n">
+        <v>8016</v>
+      </c>
+      <c r="E3891" t="n">
+        <v>8432</v>
+      </c>
+      <c r="F3891" t="n">
+        <v>221</v>
+      </c>
+      <c r="G3891" t="n">
+        <v>55572</v>
+      </c>
+      <c r="H3891" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3892">
+      <c r="A3892" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3892" t="n">
+        <v>4845</v>
+      </c>
+      <c r="D3892" t="n">
+        <v>8509</v>
+      </c>
+      <c r="E3892" t="n">
+        <v>13354</v>
+      </c>
+      <c r="F3892" t="n">
+        <v>289</v>
+      </c>
+      <c r="G3892" t="n">
+        <v>78019</v>
+      </c>
+      <c r="H3892" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3893">
+      <c r="A3893" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3893" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D3893" t="n">
+        <v>19311</v>
+      </c>
+      <c r="E3893" t="n">
+        <v>21647</v>
+      </c>
+      <c r="F3893" t="n">
+        <v>1578</v>
+      </c>
+      <c r="G3893" t="n">
+        <v>89931</v>
+      </c>
+      <c r="H3893" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3894">
+      <c r="A3894" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3894" t="n">
+        <v>999</v>
+      </c>
+      <c r="D3894" t="n">
+        <v>26491</v>
+      </c>
+      <c r="E3894" t="n">
+        <v>27490</v>
+      </c>
+      <c r="F3894" t="n">
+        <v>1803</v>
+      </c>
+      <c r="G3894" t="n">
+        <v>106838</v>
+      </c>
+      <c r="H3894" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3895">
+      <c r="A3895" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3895" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3895" t="n">
+        <v>9127</v>
+      </c>
+      <c r="E3895" t="n">
+        <v>10120</v>
+      </c>
+      <c r="F3895" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3895" t="n">
+        <v>50579</v>
+      </c>
+      <c r="H3895" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3896">
+      <c r="A3896" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3896" t="n">
+        <v>2932</v>
+      </c>
+      <c r="D3896" t="n">
+        <v>16696</v>
+      </c>
+      <c r="E3896" t="n">
+        <v>19628</v>
+      </c>
+      <c r="F3896" t="n">
+        <v>1434</v>
+      </c>
+      <c r="G3896" t="n">
+        <v>98367</v>
+      </c>
+      <c r="H3896" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3897">
+      <c r="A3897" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3897" t="n">
+        <v>2028</v>
+      </c>
+      <c r="D3897" t="n">
+        <v>12022</v>
+      </c>
+      <c r="E3897" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F3897" t="n">
+        <v>622</v>
+      </c>
+      <c r="G3897" t="n">
+        <v>82549</v>
+      </c>
+      <c r="H3897" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3898">
+      <c r="A3898" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3898" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D3898" t="n">
+        <v>14235</v>
+      </c>
+      <c r="E3898" t="n">
+        <v>17595</v>
+      </c>
+      <c r="F3898" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G3898" t="n">
+        <v>92068</v>
+      </c>
+      <c r="H3898" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3899">
+      <c r="A3899" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3899" t="n">
+        <v>2531</v>
+      </c>
+      <c r="D3899" t="n">
+        <v>11725</v>
+      </c>
+      <c r="E3899" t="n">
+        <v>14256</v>
+      </c>
+      <c r="F3899" t="n">
+        <v>379</v>
+      </c>
+      <c r="G3899" t="n">
+        <v>78901</v>
+      </c>
+      <c r="H3899" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3900">
+      <c r="A3900" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3900" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D3900" t="n">
+        <v>10232</v>
+      </c>
+      <c r="E3900" t="n">
+        <v>11459</v>
+      </c>
+      <c r="F3900" t="n">
+        <v>321</v>
+      </c>
+      <c r="G3900" t="n">
+        <v>58693</v>
+      </c>
+      <c r="H3900" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3901">
+      <c r="A3901" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3901" t="n">
+        <v>321</v>
+      </c>
+      <c r="D3901" t="n">
+        <v>2218</v>
+      </c>
+      <c r="E3901" t="n">
+        <v>2539</v>
+      </c>
+      <c r="F3901" t="n">
+        <v>61</v>
+      </c>
+      <c r="G3901" t="n">
+        <v>35085</v>
+      </c>
+      <c r="H3901" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3902">
+      <c r="A3902" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3902" t="n">
+        <v>581</v>
+      </c>
+      <c r="D3902" t="n">
+        <v>7344</v>
+      </c>
+      <c r="E3902" t="n">
+        <v>7925</v>
+      </c>
+      <c r="F3902" t="n">
+        <v>215</v>
+      </c>
+      <c r="G3902" t="n">
+        <v>54967</v>
+      </c>
+      <c r="H3902" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3903">
+      <c r="A3903" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3903" t="n">
+        <v>1363</v>
+      </c>
+      <c r="D3903" t="n">
+        <v>6698</v>
+      </c>
+      <c r="E3903" t="n">
+        <v>8061</v>
+      </c>
+      <c r="F3903" t="n">
+        <v>128</v>
+      </c>
+      <c r="G3903" t="n">
+        <v>51656</v>
+      </c>
+      <c r="H3903" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3904">
+      <c r="A3904" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3904" t="n">
+        <v>3133</v>
+      </c>
+      <c r="D3904" t="n">
+        <v>11775</v>
+      </c>
+      <c r="E3904" t="n">
+        <v>14908</v>
+      </c>
+      <c r="F3904" t="n">
+        <v>919</v>
+      </c>
+      <c r="G3904" t="n">
+        <v>48430</v>
+      </c>
+      <c r="H3904" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3905">
+      <c r="A3905" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3905" t="n">
+        <v>2285</v>
+      </c>
+      <c r="D3905" t="n">
+        <v>10680</v>
+      </c>
+      <c r="E3905" t="n">
+        <v>12965</v>
+      </c>
+      <c r="F3905" t="n">
+        <v>656</v>
+      </c>
+      <c r="G3905" t="n">
+        <v>62165</v>
+      </c>
+      <c r="H3905" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3906">
+      <c r="A3906" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3906" t="n">
+        <v>2059</v>
+      </c>
+      <c r="D3906" t="n">
+        <v>5514</v>
+      </c>
+      <c r="E3906" t="n">
+        <v>7573</v>
+      </c>
+      <c r="F3906" t="n">
+        <v>256</v>
+      </c>
+      <c r="G3906" t="n">
+        <v>41518</v>
+      </c>
+      <c r="H3906" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3907">
+      <c r="A3907" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3907" t="n">
+        <v>693</v>
+      </c>
+      <c r="D3907" t="n">
+        <v>3737</v>
+      </c>
+      <c r="E3907" t="n">
+        <v>4430</v>
+      </c>
+      <c r="F3907" t="n">
+        <v>76</v>
+      </c>
+      <c r="G3907" t="n">
+        <v>32343</v>
+      </c>
+      <c r="H3907" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3908">
+      <c r="A3908" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3908" t="n">
+        <v>232</v>
+      </c>
+      <c r="D3908" t="n">
+        <v>3367</v>
+      </c>
+      <c r="E3908" t="n">
+        <v>3599</v>
+      </c>
+      <c r="F3908" t="n">
+        <v>83</v>
+      </c>
+      <c r="G3908" t="n">
+        <v>30366</v>
+      </c>
+      <c r="H3908" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3909">
+      <c r="A3909" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3909" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3909" t="n">
+        <v>4953</v>
+      </c>
+      <c r="E3909" t="n">
+        <v>5601</v>
+      </c>
+      <c r="F3909" t="n">
+        <v>274</v>
+      </c>
+      <c r="G3909" t="n">
+        <v>25251</v>
+      </c>
+      <c r="H3909" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3910">
+      <c r="A3910" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3910" t="n">
+        <v>996</v>
+      </c>
+      <c r="D3910" t="n">
+        <v>12265</v>
+      </c>
+      <c r="E3910" t="n">
+        <v>13261</v>
+      </c>
+      <c r="F3910" t="n">
+        <v>292</v>
+      </c>
+      <c r="G3910" t="n">
+        <v>42961</v>
+      </c>
+      <c r="H3910" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3911">
+      <c r="A3911" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3911" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3911" t="n">
+        <v>4787</v>
+      </c>
+      <c r="E3911" t="n">
+        <v>5654</v>
+      </c>
+      <c r="F3911" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3911" t="n">
+        <v>28496</v>
+      </c>
+      <c r="H3911" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3912">
+      <c r="A3912" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3912" t="n">
+        <v>5336</v>
+      </c>
+      <c r="D3912" t="n">
+        <v>17749</v>
+      </c>
+      <c r="E3912" t="n">
+        <v>23085</v>
+      </c>
+      <c r="F3912" t="n">
+        <v>1198</v>
+      </c>
+      <c r="G3912" t="n">
+        <v>86456</v>
+      </c>
+      <c r="H3912" s="1" t="n">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="3913">
+      <c r="A3913" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3913" t="n">
+        <v>100630</v>
+      </c>
+      <c r="D3913" t="n">
+        <v>177080</v>
+      </c>
+      <c r="E3913" t="n">
+        <v>277710</v>
+      </c>
+      <c r="F3913" t="n">
+        <v>11395</v>
+      </c>
+      <c r="G3913" t="n">
+        <v>1373733</v>
+      </c>
+      <c r="H3913" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3914">
+      <c r="A3914" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3914" t="n">
+        <v>6846</v>
+      </c>
+      <c r="D3914" t="n">
+        <v>20093</v>
+      </c>
+      <c r="E3914" t="n">
+        <v>26939</v>
+      </c>
+      <c r="F3914" t="n">
+        <v>1558</v>
+      </c>
+      <c r="G3914" t="n">
+        <v>104556</v>
+      </c>
+      <c r="H3914" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3915">
+      <c r="A3915" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3915" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3915" t="n">
+        <v>3217</v>
+      </c>
+      <c r="D3915" t="n">
+        <v>18682</v>
+      </c>
+      <c r="E3915" t="n">
+        <v>21899</v>
+      </c>
+      <c r="F3915" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G3915" t="n">
+        <v>112638</v>
+      </c>
+      <c r="H3915" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3916">
+      <c r="A3916" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3916" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3916" t="n">
+        <v>4323</v>
+      </c>
+      <c r="D3916" t="n">
+        <v>27278</v>
+      </c>
+      <c r="E3916" t="n">
+        <v>31601</v>
+      </c>
+      <c r="F3916" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G3916" t="n">
+        <v>184908</v>
+      </c>
+      <c r="H3916" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3917">
+      <c r="A3917" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3917" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3917" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3917" t="n">
+        <v>8208</v>
+      </c>
+      <c r="E3917" t="n">
+        <v>8624</v>
+      </c>
+      <c r="F3917" t="n">
+        <v>223</v>
+      </c>
+      <c r="G3917" t="n">
+        <v>56244</v>
+      </c>
+      <c r="H3917" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3918">
+      <c r="A3918" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3918" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3918" t="n">
+        <v>4951</v>
+      </c>
+      <c r="D3918" t="n">
+        <v>8774</v>
+      </c>
+      <c r="E3918" t="n">
+        <v>13725</v>
+      </c>
+      <c r="F3918" t="n">
+        <v>302</v>
+      </c>
+      <c r="G3918" t="n">
+        <v>79350</v>
+      </c>
+      <c r="H3918" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3919">
+      <c r="A3919" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3919" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3919" t="n">
+        <v>2339</v>
+      </c>
+      <c r="D3919" t="n">
+        <v>19446</v>
+      </c>
+      <c r="E3919" t="n">
+        <v>21785</v>
+      </c>
+      <c r="F3919" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G3919" t="n">
+        <v>90503</v>
+      </c>
+      <c r="H3919" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3920">
+      <c r="A3920" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3920" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3920" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3920" t="n">
+        <v>26779</v>
+      </c>
+      <c r="E3920" t="n">
+        <v>27779</v>
+      </c>
+      <c r="F3920" t="n">
+        <v>1810</v>
+      </c>
+      <c r="G3920" t="n">
+        <v>108117</v>
+      </c>
+      <c r="H3920" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3921">
+      <c r="A3921" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3921" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3921" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3921" t="n">
+        <v>9380</v>
+      </c>
+      <c r="E3921" t="n">
+        <v>10373</v>
+      </c>
+      <c r="F3921" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3921" t="n">
+        <v>51633</v>
+      </c>
+      <c r="H3921" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3922">
+      <c r="A3922" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3922" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3922" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D3922" t="n">
+        <v>16960</v>
+      </c>
+      <c r="E3922" t="n">
+        <v>19910</v>
+      </c>
+      <c r="F3922" t="n">
+        <v>1441</v>
+      </c>
+      <c r="G3922" t="n">
+        <v>99577</v>
+      </c>
+      <c r="H3922" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3923">
+      <c r="A3923" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3923" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3923" t="n">
+        <v>2046</v>
+      </c>
+      <c r="D3923" t="n">
+        <v>12259</v>
+      </c>
+      <c r="E3923" t="n">
+        <v>14305</v>
+      </c>
+      <c r="F3923" t="n">
+        <v>629</v>
+      </c>
+      <c r="G3923" t="n">
+        <v>83768</v>
+      </c>
+      <c r="H3923" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3924">
+      <c r="A3924" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3924" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3924" t="n">
+        <v>3370</v>
+      </c>
+      <c r="D3924" t="n">
+        <v>14476</v>
+      </c>
+      <c r="E3924" t="n">
+        <v>17846</v>
+      </c>
+      <c r="F3924" t="n">
+        <v>1152</v>
+      </c>
+      <c r="G3924" t="n">
+        <v>93279</v>
+      </c>
+      <c r="H3924" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3925">
+      <c r="A3925" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3925" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3925" t="n">
+        <v>2545</v>
+      </c>
+      <c r="D3925" t="n">
+        <v>11979</v>
+      </c>
+      <c r="E3925" t="n">
+        <v>14524</v>
+      </c>
+      <c r="F3925" t="n">
+        <v>380</v>
+      </c>
+      <c r="G3925" t="n">
+        <v>80208</v>
+      </c>
+      <c r="H3925" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3926">
+      <c r="A3926" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3926" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3926" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D3926" t="n">
+        <v>10404</v>
+      </c>
+      <c r="E3926" t="n">
+        <v>11640</v>
+      </c>
+      <c r="F3926" t="n">
+        <v>324</v>
+      </c>
+      <c r="G3926" t="n">
+        <v>59725</v>
+      </c>
+      <c r="H3926" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3927">
+      <c r="A3927" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3927" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3927" t="n">
+        <v>328</v>
+      </c>
+      <c r="D3927" t="n">
+        <v>2291</v>
+      </c>
+      <c r="E3927" t="n">
+        <v>2619</v>
+      </c>
+      <c r="F3927" t="n">
+        <v>62</v>
+      </c>
+      <c r="G3927" t="n">
+        <v>35595</v>
+      </c>
+      <c r="H3927" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3928">
+      <c r="A3928" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3928" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3928" t="n">
+        <v>591</v>
+      </c>
+      <c r="D3928" t="n">
+        <v>7564</v>
+      </c>
+      <c r="E3928" t="n">
+        <v>8155</v>
+      </c>
+      <c r="F3928" t="n">
+        <v>223</v>
+      </c>
+      <c r="G3928" t="n">
+        <v>55708</v>
+      </c>
+      <c r="H3928" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3929">
+      <c r="A3929" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3929" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3929" t="n">
+        <v>1378</v>
+      </c>
+      <c r="D3929" t="n">
+        <v>6821</v>
+      </c>
+      <c r="E3929" t="n">
+        <v>8199</v>
+      </c>
+      <c r="F3929" t="n">
+        <v>139</v>
+      </c>
+      <c r="G3929" t="n">
+        <v>52183</v>
+      </c>
+      <c r="H3929" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3930">
+      <c r="A3930" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3930" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3930" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D3930" t="n">
+        <v>11908</v>
+      </c>
+      <c r="E3930" t="n">
+        <v>15056</v>
+      </c>
+      <c r="F3930" t="n">
+        <v>921</v>
+      </c>
+      <c r="G3930" t="n">
+        <v>48839</v>
+      </c>
+      <c r="H3930" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3931">
+      <c r="A3931" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3931" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3931" t="n">
+        <v>2311</v>
+      </c>
+      <c r="D3931" t="n">
+        <v>10863</v>
+      </c>
+      <c r="E3931" t="n">
+        <v>13174</v>
+      </c>
+      <c r="F3931" t="n">
+        <v>659</v>
+      </c>
+      <c r="G3931" t="n">
+        <v>62720</v>
+      </c>
+      <c r="H3931" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3932">
+      <c r="A3932" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3932" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3932" t="n">
+        <v>2077</v>
+      </c>
+      <c r="D3932" t="n">
+        <v>5716</v>
+      </c>
+      <c r="E3932" t="n">
+        <v>7793</v>
+      </c>
+      <c r="F3932" t="n">
+        <v>256</v>
+      </c>
+      <c r="G3932" t="n">
+        <v>42138</v>
+      </c>
+      <c r="H3932" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3933">
+      <c r="A3933" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3933" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3933" t="n">
+        <v>693</v>
+      </c>
+      <c r="D3933" t="n">
+        <v>3802</v>
+      </c>
+      <c r="E3933" t="n">
+        <v>4495</v>
+      </c>
+      <c r="F3933" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3933" t="n">
+        <v>32690</v>
+      </c>
+      <c r="H3933" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3934">
+      <c r="A3934" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3934" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3934" t="n">
+        <v>239</v>
+      </c>
+      <c r="D3934" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E3934" t="n">
+        <v>3639</v>
+      </c>
+      <c r="F3934" t="n">
+        <v>85</v>
+      </c>
+      <c r="G3934" t="n">
+        <v>30786</v>
+      </c>
+      <c r="H3934" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3935">
+      <c r="A3935" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3935" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3935" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3935" t="n">
+        <v>4998</v>
+      </c>
+      <c r="E3935" t="n">
+        <v>5646</v>
+      </c>
+      <c r="F3935" t="n">
+        <v>275</v>
+      </c>
+      <c r="G3935" t="n">
+        <v>25402</v>
+      </c>
+      <c r="H3935" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3936">
+      <c r="A3936" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3936" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3936" t="n">
+        <v>998</v>
+      </c>
+      <c r="D3936" t="n">
+        <v>12462</v>
+      </c>
+      <c r="E3936" t="n">
+        <v>13460</v>
+      </c>
+      <c r="F3936" t="n">
+        <v>292</v>
+      </c>
+      <c r="G3936" t="n">
+        <v>43456</v>
+      </c>
+      <c r="H3936" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3937">
+      <c r="A3937" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3937" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3937" t="n">
+        <v>867</v>
+      </c>
+      <c r="D3937" t="n">
+        <v>4910</v>
+      </c>
+      <c r="E3937" t="n">
+        <v>5777</v>
+      </c>
+      <c r="F3937" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3937" t="n">
+        <v>28855</v>
+      </c>
+      <c r="H3937" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3938">
+      <c r="A3938" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3938" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3938" t="n">
+        <v>5339</v>
+      </c>
+      <c r="D3938" t="n">
+        <v>17949</v>
+      </c>
+      <c r="E3938" t="n">
+        <v>23288</v>
+      </c>
+      <c r="F3938" t="n">
+        <v>1208</v>
+      </c>
+      <c r="G3938" t="n">
+        <v>87465</v>
+      </c>
+      <c r="H3938" s="1" t="n">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="3939">
+      <c r="A3939" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3939" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3939" t="n">
+        <v>101931</v>
+      </c>
+      <c r="D3939" t="n">
+        <v>179131</v>
+      </c>
+      <c r="E3939" t="n">
+        <v>281062</v>
+      </c>
+      <c r="F3939" t="n">
+        <v>11456</v>
+      </c>
+      <c r="G3939" t="n">
+        <v>1387413</v>
+      </c>
+      <c r="H3939" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3940">
+      <c r="A3940" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3940" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3940" t="n">
+        <v>6916</v>
+      </c>
+      <c r="D3940" t="n">
+        <v>20294</v>
+      </c>
+      <c r="E3940" t="n">
+        <v>27210</v>
+      </c>
+      <c r="F3940" t="n">
+        <v>1565</v>
+      </c>
+      <c r="G3940" t="n">
+        <v>105260</v>
+      </c>
+      <c r="H3940" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3941">
+      <c r="A3941" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3941" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3941" t="n">
+        <v>3242</v>
+      </c>
+      <c r="D3941" t="n">
+        <v>18923</v>
+      </c>
+      <c r="E3941" t="n">
+        <v>22165</v>
+      </c>
+      <c r="F3941" t="n">
+        <v>2034</v>
+      </c>
+      <c r="G3941" t="n">
+        <v>113437</v>
+      </c>
+      <c r="H3941" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3942">
+      <c r="A3942" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3942" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3942" t="n">
+        <v>4336</v>
+      </c>
+      <c r="D3942" t="n">
+        <v>27803</v>
+      </c>
+      <c r="E3942" t="n">
+        <v>32139</v>
+      </c>
+      <c r="F3942" t="n">
+        <v>1137</v>
+      </c>
+      <c r="G3942" t="n">
+        <v>187045</v>
+      </c>
+      <c r="H3942" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3943">
+      <c r="A3943" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3943" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3943" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3943" t="n">
+        <v>8422</v>
+      </c>
+      <c r="E3943" t="n">
+        <v>8838</v>
+      </c>
+      <c r="F3943" t="n">
+        <v>225</v>
+      </c>
+      <c r="G3943" t="n">
+        <v>56767</v>
+      </c>
+      <c r="H3943" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3944">
+      <c r="A3944" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3944" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3944" t="n">
+        <v>5044</v>
+      </c>
+      <c r="D3944" t="n">
+        <v>9336</v>
+      </c>
+      <c r="E3944" t="n">
+        <v>14380</v>
+      </c>
+      <c r="F3944" t="n">
+        <v>310</v>
+      </c>
+      <c r="G3944" t="n">
+        <v>80946</v>
+      </c>
+      <c r="H3944" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3945">
+      <c r="A3945" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3945" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3945" t="n">
+        <v>2353</v>
+      </c>
+      <c r="D3945" t="n">
+        <v>19607</v>
+      </c>
+      <c r="E3945" t="n">
+        <v>21960</v>
+      </c>
+      <c r="F3945" t="n">
+        <v>1582</v>
+      </c>
+      <c r="G3945" t="n">
+        <v>91068</v>
+      </c>
+      <c r="H3945" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3946">
+      <c r="A3946" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3946" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3946" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D3946" t="n">
+        <v>27209</v>
+      </c>
+      <c r="E3946" t="n">
+        <v>28212</v>
+      </c>
+      <c r="F3946" t="n">
+        <v>1813</v>
+      </c>
+      <c r="G3946" t="n">
+        <v>109481</v>
+      </c>
+      <c r="H3946" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3947">
+      <c r="A3947" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3947" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3947" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3947" t="n">
+        <v>9647</v>
+      </c>
+      <c r="E3947" t="n">
+        <v>10640</v>
+      </c>
+      <c r="F3947" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3947" t="n">
+        <v>52513</v>
+      </c>
+      <c r="H3947" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3948">
+      <c r="A3948" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3948" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3948" t="n">
+        <v>2992</v>
+      </c>
+      <c r="D3948" t="n">
+        <v>17345</v>
+      </c>
+      <c r="E3948" t="n">
+        <v>20337</v>
+      </c>
+      <c r="F3948" t="n">
+        <v>1446</v>
+      </c>
+      <c r="G3948" t="n">
+        <v>100733</v>
+      </c>
+      <c r="H3948" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3949">
+      <c r="A3949" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3949" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3949" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D3949" t="n">
+        <v>12476</v>
+      </c>
+      <c r="E3949" t="n">
+        <v>14554</v>
+      </c>
+      <c r="F3949" t="n">
+        <v>638</v>
+      </c>
+      <c r="G3949" t="n">
+        <v>85095</v>
+      </c>
+      <c r="H3949" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3950">
+      <c r="A3950" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3950" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3950" t="n">
+        <v>3373</v>
+      </c>
+      <c r="D3950" t="n">
+        <v>14715</v>
+      </c>
+      <c r="E3950" t="n">
+        <v>18088</v>
+      </c>
+      <c r="F3950" t="n">
+        <v>1156</v>
+      </c>
+      <c r="G3950" t="n">
+        <v>93938</v>
+      </c>
+      <c r="H3950" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3951">
+      <c r="A3951" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3951" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3951" t="n">
+        <v>2567</v>
+      </c>
+      <c r="D3951" t="n">
+        <v>12297</v>
+      </c>
+      <c r="E3951" t="n">
+        <v>14864</v>
+      </c>
+      <c r="F3951" t="n">
+        <v>383</v>
+      </c>
+      <c r="G3951" t="n">
+        <v>81244</v>
+      </c>
+      <c r="H3951" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3952">
+      <c r="A3952" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3952" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3952" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D3952" t="n">
+        <v>10587</v>
+      </c>
+      <c r="E3952" t="n">
+        <v>11837</v>
+      </c>
+      <c r="F3952" t="n">
+        <v>324</v>
+      </c>
+      <c r="G3952" t="n">
+        <v>60316</v>
+      </c>
+      <c r="H3952" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3953">
+      <c r="A3953" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3953" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3953" t="n">
+        <v>340</v>
+      </c>
+      <c r="D3953" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E3953" t="n">
+        <v>2703</v>
+      </c>
+      <c r="F3953" t="n">
+        <v>63</v>
+      </c>
+      <c r="G3953" t="n">
+        <v>35924</v>
+      </c>
+      <c r="H3953" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3954">
+      <c r="A3954" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3954" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3954" t="n">
+        <v>615</v>
+      </c>
+      <c r="D3954" t="n">
+        <v>7777</v>
+      </c>
+      <c r="E3954" t="n">
+        <v>8392</v>
+      </c>
+      <c r="F3954" t="n">
+        <v>229</v>
+      </c>
+      <c r="G3954" t="n">
+        <v>56327</v>
+      </c>
+      <c r="H3954" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3955">
+      <c r="A3955" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3955" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3955" t="n">
+        <v>1382</v>
+      </c>
+      <c r="D3955" t="n">
+        <v>6991</v>
+      </c>
+      <c r="E3955" t="n">
+        <v>8373</v>
+      </c>
+      <c r="F3955" t="n">
+        <v>141</v>
+      </c>
+      <c r="G3955" t="n">
+        <v>52923</v>
+      </c>
+      <c r="H3955" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3956">
+      <c r="A3956" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3956" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3956" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D3956" t="n">
+        <v>12241</v>
+      </c>
+      <c r="E3956" t="n">
+        <v>15391</v>
+      </c>
+      <c r="F3956" t="n">
+        <v>922</v>
+      </c>
+      <c r="G3956" t="n">
+        <v>49388</v>
+      </c>
+      <c r="H3956" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3957">
+      <c r="A3957" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3957" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3957" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D3957" t="n">
+        <v>11116</v>
+      </c>
+      <c r="E3957" t="n">
+        <v>13428</v>
+      </c>
+      <c r="F3957" t="n">
+        <v>659</v>
+      </c>
+      <c r="G3957" t="n">
+        <v>63186</v>
+      </c>
+      <c r="H3957" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3958">
+      <c r="A3958" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3958" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3958" t="n">
+        <v>2092</v>
+      </c>
+      <c r="D3958" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E3958" t="n">
+        <v>7981</v>
+      </c>
+      <c r="F3958" t="n">
+        <v>257</v>
+      </c>
+      <c r="G3958" t="n">
+        <v>42650</v>
+      </c>
+      <c r="H3958" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3959">
+      <c r="A3959" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3959" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3959" t="n">
+        <v>706</v>
+      </c>
+      <c r="D3959" t="n">
+        <v>3868</v>
+      </c>
+      <c r="E3959" t="n">
+        <v>4574</v>
+      </c>
+      <c r="F3959" t="n">
+        <v>81</v>
+      </c>
+      <c r="G3959" t="n">
+        <v>32995</v>
+      </c>
+      <c r="H3959" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3960">
+      <c r="A3960" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3960" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3960" t="n">
+        <v>239</v>
+      </c>
+      <c r="D3960" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E3960" t="n">
+        <v>3705</v>
+      </c>
+      <c r="F3960" t="n">
+        <v>87</v>
+      </c>
+      <c r="G3960" t="n">
+        <v>31041</v>
+      </c>
+      <c r="H3960" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3961">
+      <c r="A3961" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3961" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3961" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3961" t="n">
+        <v>5014</v>
+      </c>
+      <c r="E3961" t="n">
+        <v>5662</v>
+      </c>
+      <c r="F3961" t="n">
+        <v>275</v>
+      </c>
+      <c r="G3961" t="n">
+        <v>25490</v>
+      </c>
+      <c r="H3961" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3962">
+      <c r="A3962" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3962" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3962" t="n">
+        <v>998</v>
+      </c>
+      <c r="D3962" t="n">
+        <v>12550</v>
+      </c>
+      <c r="E3962" t="n">
+        <v>13548</v>
+      </c>
+      <c r="F3962" t="n">
+        <v>293</v>
+      </c>
+      <c r="G3962" t="n">
+        <v>43961</v>
+      </c>
+      <c r="H3962" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3963">
+      <c r="A3963" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3963" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3963" t="n">
+        <v>879</v>
+      </c>
+      <c r="D3963" t="n">
+        <v>5008</v>
+      </c>
+      <c r="E3963" t="n">
+        <v>5887</v>
+      </c>
+      <c r="F3963" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3963" t="n">
+        <v>29172</v>
+      </c>
+      <c r="H3963" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3964">
+      <c r="A3964" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3964" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3964" t="n">
+        <v>5396</v>
+      </c>
+      <c r="D3964" t="n">
+        <v>18109</v>
+      </c>
+      <c r="E3964" t="n">
+        <v>23505</v>
+      </c>
+      <c r="F3964" t="n">
+        <v>1212</v>
+      </c>
+      <c r="G3964" t="n">
+        <v>88366</v>
+      </c>
+      <c r="H3964" s="1" t="n">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="3965">
+      <c r="A3965" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3965" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3965" t="n">
+        <v>102691</v>
+      </c>
+      <c r="D3965" t="n">
+        <v>180812</v>
+      </c>
+      <c r="E3965" t="n">
+        <v>283503</v>
+      </c>
+      <c r="F3965" t="n">
+        <v>11544</v>
+      </c>
+      <c r="G3965" t="n">
+        <v>1400504</v>
+      </c>
+      <c r="H3965" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3966">
+      <c r="A3966" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3966" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3966" t="n">
+        <v>6954</v>
+      </c>
+      <c r="D3966" t="n">
+        <v>20453</v>
+      </c>
+      <c r="E3966" t="n">
+        <v>27407</v>
+      </c>
+      <c r="F3966" t="n">
+        <v>1570</v>
+      </c>
+      <c r="G3966" t="n">
+        <v>105990</v>
+      </c>
+      <c r="H3966" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3967">
+      <c r="A3967" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3967" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3967" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D3967" t="n">
+        <v>19235</v>
+      </c>
+      <c r="E3967" t="n">
+        <v>22485</v>
+      </c>
+      <c r="F3967" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G3967" t="n">
+        <v>114565</v>
+      </c>
+      <c r="H3967" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3968">
+      <c r="A3968" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3968" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3968" t="n">
+        <v>4350</v>
+      </c>
+      <c r="D3968" t="n">
+        <v>28254</v>
+      </c>
+      <c r="E3968" t="n">
+        <v>32604</v>
+      </c>
+      <c r="F3968" t="n">
+        <v>1145</v>
+      </c>
+      <c r="G3968" t="n">
+        <v>189070</v>
+      </c>
+      <c r="H3968" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3969">
+      <c r="A3969" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3969" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3969" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3969" t="n">
+        <v>8544</v>
+      </c>
+      <c r="E3969" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F3969" t="n">
+        <v>227</v>
+      </c>
+      <c r="G3969" t="n">
+        <v>57134</v>
+      </c>
+      <c r="H3969" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3970">
+      <c r="A3970" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3970" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3970" t="n">
+        <v>5230</v>
+      </c>
+      <c r="D3970" t="n">
+        <v>9743</v>
+      </c>
+      <c r="E3970" t="n">
+        <v>14973</v>
+      </c>
+      <c r="F3970" t="n">
+        <v>321</v>
+      </c>
+      <c r="G3970" t="n">
+        <v>84292</v>
+      </c>
+      <c r="H3970" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3971">
+      <c r="A3971" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3971" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3971" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D3971" t="n">
+        <v>19779</v>
+      </c>
+      <c r="E3971" t="n">
+        <v>22142</v>
+      </c>
+      <c r="F3971" t="n">
+        <v>1585</v>
+      </c>
+      <c r="G3971" t="n">
+        <v>91809</v>
+      </c>
+      <c r="H3971" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3972">
+      <c r="A3972" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3972" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3972" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D3972" t="n">
+        <v>27576</v>
+      </c>
+      <c r="E3972" t="n">
+        <v>28586</v>
+      </c>
+      <c r="F3972" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G3972" t="n">
+        <v>110884</v>
+      </c>
+      <c r="H3972" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3973">
+      <c r="A3973" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3973" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3973" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3973" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E3973" t="n">
+        <v>10803</v>
+      </c>
+      <c r="F3973" t="n">
+        <v>190</v>
+      </c>
+      <c r="G3973" t="n">
+        <v>53226</v>
+      </c>
+      <c r="H3973" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3974">
+      <c r="A3974" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3974" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3974" t="n">
+        <v>3026</v>
+      </c>
+      <c r="D3974" t="n">
+        <v>17710</v>
+      </c>
+      <c r="E3974" t="n">
+        <v>20736</v>
+      </c>
+      <c r="F3974" t="n">
+        <v>1451</v>
+      </c>
+      <c r="G3974" t="n">
+        <v>102399</v>
+      </c>
+      <c r="H3974" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3975">
+      <c r="A3975" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3975" t="n">
+        <v>2088</v>
+      </c>
+      <c r="D3975" t="n">
+        <v>12667</v>
+      </c>
+      <c r="E3975" t="n">
+        <v>14755</v>
+      </c>
+      <c r="F3975" t="n">
+        <v>647</v>
+      </c>
+      <c r="G3975" t="n">
+        <v>86309</v>
+      </c>
+      <c r="H3975" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3976">
+      <c r="A3976" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3976" t="n">
+        <v>3445</v>
+      </c>
+      <c r="D3976" t="n">
+        <v>14910</v>
+      </c>
+      <c r="E3976" t="n">
+        <v>18355</v>
+      </c>
+      <c r="F3976" t="n">
+        <v>1167</v>
+      </c>
+      <c r="G3976" t="n">
+        <v>95043</v>
+      </c>
+      <c r="H3976" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3977">
+      <c r="A3977" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3977" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D3977" t="n">
+        <v>12468</v>
+      </c>
+      <c r="E3977" t="n">
+        <v>15040</v>
+      </c>
+      <c r="F3977" t="n">
+        <v>385</v>
+      </c>
+      <c r="G3977" t="n">
+        <v>82232</v>
+      </c>
+      <c r="H3977" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3978">
+      <c r="A3978" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3978" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D3978" t="n">
+        <v>10785</v>
+      </c>
+      <c r="E3978" t="n">
+        <v>12049</v>
+      </c>
+      <c r="F3978" t="n">
+        <v>327</v>
+      </c>
+      <c r="G3978" t="n">
+        <v>61025</v>
+      </c>
+      <c r="H3978" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3979">
+      <c r="A3979" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3979" t="n">
+        <v>364</v>
+      </c>
+      <c r="D3979" t="n">
+        <v>2435</v>
+      </c>
+      <c r="E3979" t="n">
+        <v>2799</v>
+      </c>
+      <c r="F3979" t="n">
+        <v>64</v>
+      </c>
+      <c r="G3979" t="n">
+        <v>36473</v>
+      </c>
+      <c r="H3979" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3980">
+      <c r="A3980" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3980" t="n">
+        <v>615</v>
+      </c>
+      <c r="D3980" t="n">
+        <v>7988</v>
+      </c>
+      <c r="E3980" t="n">
+        <v>8603</v>
+      </c>
+      <c r="F3980" t="n">
+        <v>231</v>
+      </c>
+      <c r="G3980" t="n">
+        <v>56968</v>
+      </c>
+      <c r="H3980" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3981">
+      <c r="A3981" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3981" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D3981" t="n">
+        <v>7112</v>
+      </c>
+      <c r="E3981" t="n">
+        <v>8503</v>
+      </c>
+      <c r="F3981" t="n">
+        <v>146</v>
+      </c>
+      <c r="G3981" t="n">
+        <v>53195</v>
+      </c>
+      <c r="H3981" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3982" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3982" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D3982" t="n">
+        <v>12339</v>
+      </c>
+      <c r="E3982" t="n">
+        <v>15489</v>
+      </c>
+      <c r="F3982" t="n">
+        <v>922</v>
+      </c>
+      <c r="G3982" t="n">
+        <v>49643</v>
+      </c>
+      <c r="H3982" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3983" t="n">
+        <v>2332</v>
+      </c>
+      <c r="D3983" t="n">
+        <v>11293</v>
+      </c>
+      <c r="E3983" t="n">
+        <v>13625</v>
+      </c>
+      <c r="F3983" t="n">
+        <v>661</v>
+      </c>
+      <c r="G3983" t="n">
+        <v>63718</v>
+      </c>
+      <c r="H3983" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3984" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D3984" t="n">
+        <v>6012</v>
+      </c>
+      <c r="E3984" t="n">
+        <v>8132</v>
+      </c>
+      <c r="F3984" t="n">
+        <v>259</v>
+      </c>
+      <c r="G3984" t="n">
+        <v>43270</v>
+      </c>
+      <c r="H3984" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3985" t="n">
+        <v>706</v>
+      </c>
+      <c r="D3985" t="n">
+        <v>3933</v>
+      </c>
+      <c r="E3985" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F3985" t="n">
+        <v>83</v>
+      </c>
+      <c r="G3985" t="n">
+        <v>33451</v>
+      </c>
+      <c r="H3985" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3986" t="n">
+        <v>256</v>
+      </c>
+      <c r="D3986" t="n">
+        <v>3567</v>
+      </c>
+      <c r="E3986" t="n">
+        <v>3823</v>
+      </c>
+      <c r="F3986" t="n">
+        <v>88</v>
+      </c>
+      <c r="G3986" t="n">
+        <v>31460</v>
+      </c>
+      <c r="H3986" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3987" t="n">
+        <v>648</v>
+      </c>
+      <c r="D3987" t="n">
+        <v>5067</v>
+      </c>
+      <c r="E3987" t="n">
+        <v>5715</v>
+      </c>
+      <c r="F3987" t="n">
+        <v>276</v>
+      </c>
+      <c r="G3987" t="n">
+        <v>25742</v>
+      </c>
+      <c r="H3987" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3988" t="n">
+        <v>998</v>
+      </c>
+      <c r="D3988" t="n">
+        <v>12718</v>
+      </c>
+      <c r="E3988" t="n">
+        <v>13716</v>
+      </c>
+      <c r="F3988" t="n">
+        <v>297</v>
+      </c>
+      <c r="G3988" t="n">
+        <v>44319</v>
+      </c>
+      <c r="H3988" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3989" t="n">
+        <v>884</v>
+      </c>
+      <c r="D3989" t="n">
+        <v>5098</v>
+      </c>
+      <c r="E3989" t="n">
+        <v>5982</v>
+      </c>
+      <c r="F3989" t="n">
+        <v>129</v>
+      </c>
+      <c r="G3989" t="n">
+        <v>29483</v>
+      </c>
+      <c r="H3989" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3990" t="n">
+        <v>5401</v>
+      </c>
+      <c r="D3990" t="n">
+        <v>18341</v>
+      </c>
+      <c r="E3990" t="n">
+        <v>23742</v>
+      </c>
+      <c r="F3990" t="n">
+        <v>1213</v>
+      </c>
+      <c r="G3990" t="n">
+        <v>89646</v>
+      </c>
+      <c r="H3990" s="1" t="n">
+        <v>44073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/ReporteMinsaDepartamento.xlsx
+++ b/ReporteMinsaDepartamento.xlsx
@@ -101111,6 +101111,2710 @@
         <v>44073</v>
       </c>
     </row>
+    <row r="3991">
+      <c r="A3991" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3991" t="n">
+        <v>103488</v>
+      </c>
+      <c r="D3991" t="n">
+        <v>181810</v>
+      </c>
+      <c r="E3991" t="n">
+        <v>285298</v>
+      </c>
+      <c r="F3991" t="n">
+        <v>11612</v>
+      </c>
+      <c r="G3991" t="n">
+        <v>1409428</v>
+      </c>
+      <c r="H3991" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3992">
+      <c r="A3992" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3992" t="n">
+        <v>6977</v>
+      </c>
+      <c r="D3992" t="n">
+        <v>20512</v>
+      </c>
+      <c r="E3992" t="n">
+        <v>27489</v>
+      </c>
+      <c r="F3992" t="n">
+        <v>1576</v>
+      </c>
+      <c r="G3992" t="n">
+        <v>106375</v>
+      </c>
+      <c r="H3992" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3993">
+      <c r="A3993" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3993" t="n">
+        <v>3266</v>
+      </c>
+      <c r="D3993" t="n">
+        <v>19350</v>
+      </c>
+      <c r="E3993" t="n">
+        <v>22616</v>
+      </c>
+      <c r="F3993" t="n">
+        <v>2052</v>
+      </c>
+      <c r="G3993" t="n">
+        <v>115112</v>
+      </c>
+      <c r="H3993" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3994">
+      <c r="A3994" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3994" t="n">
+        <v>4357</v>
+      </c>
+      <c r="D3994" t="n">
+        <v>28546</v>
+      </c>
+      <c r="E3994" t="n">
+        <v>32903</v>
+      </c>
+      <c r="F3994" t="n">
+        <v>1159</v>
+      </c>
+      <c r="G3994" t="n">
+        <v>190926</v>
+      </c>
+      <c r="H3994" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3995">
+      <c r="A3995" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3995" t="n">
+        <v>416</v>
+      </c>
+      <c r="D3995" t="n">
+        <v>8592</v>
+      </c>
+      <c r="E3995" t="n">
+        <v>9008</v>
+      </c>
+      <c r="F3995" t="n">
+        <v>229</v>
+      </c>
+      <c r="G3995" t="n">
+        <v>57364</v>
+      </c>
+      <c r="H3995" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3996">
+      <c r="A3996" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3996" t="n">
+        <v>5230</v>
+      </c>
+      <c r="D3996" t="n">
+        <v>10005</v>
+      </c>
+      <c r="E3996" t="n">
+        <v>15235</v>
+      </c>
+      <c r="F3996" t="n">
+        <v>326</v>
+      </c>
+      <c r="G3996" t="n">
+        <v>85679</v>
+      </c>
+      <c r="H3996" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3997">
+      <c r="A3997" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3997" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3997" t="n">
+        <v>2377</v>
+      </c>
+      <c r="D3997" t="n">
+        <v>19876</v>
+      </c>
+      <c r="E3997" t="n">
+        <v>22253</v>
+      </c>
+      <c r="F3997" t="n">
+        <v>1589</v>
+      </c>
+      <c r="G3997" t="n">
+        <v>92277</v>
+      </c>
+      <c r="H3997" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3998">
+      <c r="A3998" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3998" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D3998" t="n">
+        <v>27725</v>
+      </c>
+      <c r="E3998" t="n">
+        <v>28742</v>
+      </c>
+      <c r="F3998" t="n">
+        <v>1825</v>
+      </c>
+      <c r="G3998" t="n">
+        <v>111700</v>
+      </c>
+      <c r="H3998" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3999">
+      <c r="A3999" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3999" t="n">
+        <v>993</v>
+      </c>
+      <c r="D3999" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E3999" t="n">
+        <v>10883</v>
+      </c>
+      <c r="F3999" t="n">
+        <v>191</v>
+      </c>
+      <c r="G3999" t="n">
+        <v>53617</v>
+      </c>
+      <c r="H3999" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4000">
+      <c r="A4000" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4000" t="n">
+        <v>3029</v>
+      </c>
+      <c r="D4000" t="n">
+        <v>17984</v>
+      </c>
+      <c r="E4000" t="n">
+        <v>21013</v>
+      </c>
+      <c r="F4000" t="n">
+        <v>1455</v>
+      </c>
+      <c r="G4000" t="n">
+        <v>103402</v>
+      </c>
+      <c r="H4000" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4001">
+      <c r="A4001" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4001" t="n">
+        <v>2092</v>
+      </c>
+      <c r="D4001" t="n">
+        <v>12903</v>
+      </c>
+      <c r="E4001" t="n">
+        <v>14995</v>
+      </c>
+      <c r="F4001" t="n">
+        <v>654</v>
+      </c>
+      <c r="G4001" t="n">
+        <v>87760</v>
+      </c>
+      <c r="H4001" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4002">
+      <c r="A4002" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4002" t="n">
+        <v>3462</v>
+      </c>
+      <c r="D4002" t="n">
+        <v>14997</v>
+      </c>
+      <c r="E4002" t="n">
+        <v>18459</v>
+      </c>
+      <c r="F4002" t="n">
+        <v>1170</v>
+      </c>
+      <c r="G4002" t="n">
+        <v>95687</v>
+      </c>
+      <c r="H4002" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4003">
+      <c r="A4003" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4003" t="n">
+        <v>2586</v>
+      </c>
+      <c r="D4003" t="n">
+        <v>12603</v>
+      </c>
+      <c r="E4003" t="n">
+        <v>15189</v>
+      </c>
+      <c r="F4003" t="n">
+        <v>388</v>
+      </c>
+      <c r="G4003" t="n">
+        <v>83227</v>
+      </c>
+      <c r="H4003" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4004">
+      <c r="A4004" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4004" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D4004" t="n">
+        <v>10998</v>
+      </c>
+      <c r="E4004" t="n">
+        <v>12262</v>
+      </c>
+      <c r="F4004" t="n">
+        <v>331</v>
+      </c>
+      <c r="G4004" t="n">
+        <v>62047</v>
+      </c>
+      <c r="H4004" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4005">
+      <c r="A4005" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4005" t="n">
+        <v>364</v>
+      </c>
+      <c r="D4005" t="n">
+        <v>2478</v>
+      </c>
+      <c r="E4005" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F4005" t="n">
+        <v>65</v>
+      </c>
+      <c r="G4005" t="n">
+        <v>36901</v>
+      </c>
+      <c r="H4005" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4006">
+      <c r="A4006" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4006" t="n">
+        <v>633</v>
+      </c>
+      <c r="D4006" t="n">
+        <v>8123</v>
+      </c>
+      <c r="E4006" t="n">
+        <v>8756</v>
+      </c>
+      <c r="F4006" t="n">
+        <v>237</v>
+      </c>
+      <c r="G4006" t="n">
+        <v>57561</v>
+      </c>
+      <c r="H4006" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4007">
+      <c r="A4007" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4007" t="n">
+        <v>1405</v>
+      </c>
+      <c r="D4007" t="n">
+        <v>7234</v>
+      </c>
+      <c r="E4007" t="n">
+        <v>8639</v>
+      </c>
+      <c r="F4007" t="n">
+        <v>147</v>
+      </c>
+      <c r="G4007" t="n">
+        <v>53627</v>
+      </c>
+      <c r="H4007" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4008">
+      <c r="A4008" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4008" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D4008" t="n">
+        <v>12423</v>
+      </c>
+      <c r="E4008" t="n">
+        <v>15573</v>
+      </c>
+      <c r="F4008" t="n">
+        <v>922</v>
+      </c>
+      <c r="G4008" t="n">
+        <v>49873</v>
+      </c>
+      <c r="H4008" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4009">
+      <c r="A4009" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4009" t="n">
+        <v>2348</v>
+      </c>
+      <c r="D4009" t="n">
+        <v>11326</v>
+      </c>
+      <c r="E4009" t="n">
+        <v>13674</v>
+      </c>
+      <c r="F4009" t="n">
+        <v>661</v>
+      </c>
+      <c r="G4009" t="n">
+        <v>63886</v>
+      </c>
+      <c r="H4009" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4010">
+      <c r="A4010" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4010" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D4010" t="n">
+        <v>6088</v>
+      </c>
+      <c r="E4010" t="n">
+        <v>8208</v>
+      </c>
+      <c r="F4010" t="n">
+        <v>260</v>
+      </c>
+      <c r="G4010" t="n">
+        <v>43663</v>
+      </c>
+      <c r="H4010" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4011">
+      <c r="A4011" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4011" t="n">
+        <v>706</v>
+      </c>
+      <c r="D4011" t="n">
+        <v>4008</v>
+      </c>
+      <c r="E4011" t="n">
+        <v>4714</v>
+      </c>
+      <c r="F4011" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4011" t="n">
+        <v>33789</v>
+      </c>
+      <c r="H4011" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4012">
+      <c r="A4012" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4012" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4012" t="n">
+        <v>259</v>
+      </c>
+      <c r="D4012" t="n">
+        <v>3601</v>
+      </c>
+      <c r="E4012" t="n">
+        <v>3860</v>
+      </c>
+      <c r="F4012" t="n">
+        <v>89</v>
+      </c>
+      <c r="G4012" t="n">
+        <v>31676</v>
+      </c>
+      <c r="H4012" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4013">
+      <c r="A4013" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4013" t="n">
+        <v>648</v>
+      </c>
+      <c r="D4013" t="n">
+        <v>5087</v>
+      </c>
+      <c r="E4013" t="n">
+        <v>5735</v>
+      </c>
+      <c r="F4013" t="n">
+        <v>277</v>
+      </c>
+      <c r="G4013" t="n">
+        <v>25840</v>
+      </c>
+      <c r="H4013" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4014">
+      <c r="A4014" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4014" t="n">
+        <v>999</v>
+      </c>
+      <c r="D4014" t="n">
+        <v>12769</v>
+      </c>
+      <c r="E4014" t="n">
+        <v>13768</v>
+      </c>
+      <c r="F4014" t="n">
+        <v>297</v>
+      </c>
+      <c r="G4014" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H4014" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4015">
+      <c r="A4015" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4015" t="n">
+        <v>884</v>
+      </c>
+      <c r="D4015" t="n">
+        <v>5175</v>
+      </c>
+      <c r="E4015" t="n">
+        <v>6059</v>
+      </c>
+      <c r="F4015" t="n">
+        <v>129</v>
+      </c>
+      <c r="G4015" t="n">
+        <v>29684</v>
+      </c>
+      <c r="H4015" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4016">
+      <c r="A4016" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4016" t="n">
+        <v>5436</v>
+      </c>
+      <c r="D4016" t="n">
+        <v>18428</v>
+      </c>
+      <c r="E4016" t="n">
+        <v>23864</v>
+      </c>
+      <c r="F4016" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G4016" t="n">
+        <v>90247</v>
+      </c>
+      <c r="H4016" s="1" t="n">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4017">
+      <c r="A4017" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4017" t="n">
+        <v>104341</v>
+      </c>
+      <c r="D4017" t="n">
+        <v>182985</v>
+      </c>
+      <c r="E4017" t="n">
+        <v>287326</v>
+      </c>
+      <c r="F4017" t="n">
+        <v>11681</v>
+      </c>
+      <c r="G4017" t="n">
+        <v>1418056</v>
+      </c>
+      <c r="H4017" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4018">
+      <c r="A4018" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4018" t="n">
+        <v>6992</v>
+      </c>
+      <c r="D4018" t="n">
+        <v>20656</v>
+      </c>
+      <c r="E4018" t="n">
+        <v>27648</v>
+      </c>
+      <c r="F4018" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G4018" t="n">
+        <v>106832</v>
+      </c>
+      <c r="H4018" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4019">
+      <c r="A4019" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4019" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D4019" t="n">
+        <v>19488</v>
+      </c>
+      <c r="E4019" t="n">
+        <v>22785</v>
+      </c>
+      <c r="F4019" t="n">
+        <v>2057</v>
+      </c>
+      <c r="G4019" t="n">
+        <v>115738</v>
+      </c>
+      <c r="H4019" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4020">
+      <c r="A4020" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4020" t="n">
+        <v>4396</v>
+      </c>
+      <c r="D4020" t="n">
+        <v>28744</v>
+      </c>
+      <c r="E4020" t="n">
+        <v>33140</v>
+      </c>
+      <c r="F4020" t="n">
+        <v>1170</v>
+      </c>
+      <c r="G4020" t="n">
+        <v>191601</v>
+      </c>
+      <c r="H4020" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4021">
+      <c r="A4021" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4021" t="n">
+        <v>416</v>
+      </c>
+      <c r="D4021" t="n">
+        <v>8673</v>
+      </c>
+      <c r="E4021" t="n">
+        <v>9089</v>
+      </c>
+      <c r="F4021" t="n">
+        <v>229</v>
+      </c>
+      <c r="G4021" t="n">
+        <v>57542</v>
+      </c>
+      <c r="H4021" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4022">
+      <c r="A4022" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4022" t="n">
+        <v>5263</v>
+      </c>
+      <c r="D4022" t="n">
+        <v>10116</v>
+      </c>
+      <c r="E4022" t="n">
+        <v>15379</v>
+      </c>
+      <c r="F4022" t="n">
+        <v>330</v>
+      </c>
+      <c r="G4022" t="n">
+        <v>86038</v>
+      </c>
+      <c r="H4022" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4023">
+      <c r="A4023" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4023" t="n">
+        <v>2379</v>
+      </c>
+      <c r="D4023" t="n">
+        <v>19952</v>
+      </c>
+      <c r="E4023" t="n">
+        <v>22331</v>
+      </c>
+      <c r="F4023" t="n">
+        <v>1593</v>
+      </c>
+      <c r="G4023" t="n">
+        <v>92515</v>
+      </c>
+      <c r="H4023" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4024">
+      <c r="A4024" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4024" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D4024" t="n">
+        <v>27943</v>
+      </c>
+      <c r="E4024" t="n">
+        <v>28960</v>
+      </c>
+      <c r="F4024" t="n">
+        <v>1830</v>
+      </c>
+      <c r="G4024" t="n">
+        <v>112246</v>
+      </c>
+      <c r="H4024" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4025">
+      <c r="A4025" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4025" t="n">
+        <v>993</v>
+      </c>
+      <c r="D4025" t="n">
+        <v>9971</v>
+      </c>
+      <c r="E4025" t="n">
+        <v>10964</v>
+      </c>
+      <c r="F4025" t="n">
+        <v>191</v>
+      </c>
+      <c r="G4025" t="n">
+        <v>53813</v>
+      </c>
+      <c r="H4025" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4026">
+      <c r="A4026" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4026" t="n">
+        <v>3036</v>
+      </c>
+      <c r="D4026" t="n">
+        <v>18221</v>
+      </c>
+      <c r="E4026" t="n">
+        <v>21257</v>
+      </c>
+      <c r="F4026" t="n">
+        <v>1457</v>
+      </c>
+      <c r="G4026" t="n">
+        <v>104145</v>
+      </c>
+      <c r="H4026" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4027">
+      <c r="A4027" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4027" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4027" t="n">
+        <v>2093</v>
+      </c>
+      <c r="D4027" t="n">
+        <v>13018</v>
+      </c>
+      <c r="E4027" t="n">
+        <v>15111</v>
+      </c>
+      <c r="F4027" t="n">
+        <v>656</v>
+      </c>
+      <c r="G4027" t="n">
+        <v>88149</v>
+      </c>
+      <c r="H4027" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4028">
+      <c r="A4028" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4028" t="n">
+        <v>3499</v>
+      </c>
+      <c r="D4028" t="n">
+        <v>15106</v>
+      </c>
+      <c r="E4028" t="n">
+        <v>18605</v>
+      </c>
+      <c r="F4028" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G4028" t="n">
+        <v>96183</v>
+      </c>
+      <c r="H4028" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4029">
+      <c r="A4029" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4029" t="n">
+        <v>2589</v>
+      </c>
+      <c r="D4029" t="n">
+        <v>12781</v>
+      </c>
+      <c r="E4029" t="n">
+        <v>15370</v>
+      </c>
+      <c r="F4029" t="n">
+        <v>388</v>
+      </c>
+      <c r="G4029" t="n">
+        <v>83678</v>
+      </c>
+      <c r="H4029" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4030">
+      <c r="A4030" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4030" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D4030" t="n">
+        <v>11164</v>
+      </c>
+      <c r="E4030" t="n">
+        <v>12444</v>
+      </c>
+      <c r="F4030" t="n">
+        <v>333</v>
+      </c>
+      <c r="G4030" t="n">
+        <v>62550</v>
+      </c>
+      <c r="H4030" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4031">
+      <c r="A4031" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4031" t="n">
+        <v>365</v>
+      </c>
+      <c r="D4031" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E4031" t="n">
+        <v>2873</v>
+      </c>
+      <c r="F4031" t="n">
+        <v>65</v>
+      </c>
+      <c r="G4031" t="n">
+        <v>37051</v>
+      </c>
+      <c r="H4031" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4032">
+      <c r="A4032" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4032" t="n">
+        <v>633</v>
+      </c>
+      <c r="D4032" t="n">
+        <v>8188</v>
+      </c>
+      <c r="E4032" t="n">
+        <v>8821</v>
+      </c>
+      <c r="F4032" t="n">
+        <v>239</v>
+      </c>
+      <c r="G4032" t="n">
+        <v>57726</v>
+      </c>
+      <c r="H4032" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4033">
+      <c r="A4033" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4033" t="n">
+        <v>1405</v>
+      </c>
+      <c r="D4033" t="n">
+        <v>7336</v>
+      </c>
+      <c r="E4033" t="n">
+        <v>8741</v>
+      </c>
+      <c r="F4033" t="n">
+        <v>148</v>
+      </c>
+      <c r="G4033" t="n">
+        <v>53896</v>
+      </c>
+      <c r="H4033" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4034">
+      <c r="A4034" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4034" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D4034" t="n">
+        <v>12549</v>
+      </c>
+      <c r="E4034" t="n">
+        <v>15699</v>
+      </c>
+      <c r="F4034" t="n">
+        <v>923</v>
+      </c>
+      <c r="G4034" t="n">
+        <v>50134</v>
+      </c>
+      <c r="H4034" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4035">
+      <c r="A4035" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4035" t="n">
+        <v>2369</v>
+      </c>
+      <c r="D4035" t="n">
+        <v>11426</v>
+      </c>
+      <c r="E4035" t="n">
+        <v>13795</v>
+      </c>
+      <c r="F4035" t="n">
+        <v>664</v>
+      </c>
+      <c r="G4035" t="n">
+        <v>64146</v>
+      </c>
+      <c r="H4035" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4036">
+      <c r="A4036" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4036" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D4036" t="n">
+        <v>6206</v>
+      </c>
+      <c r="E4036" t="n">
+        <v>8337</v>
+      </c>
+      <c r="F4036" t="n">
+        <v>261</v>
+      </c>
+      <c r="G4036" t="n">
+        <v>43904</v>
+      </c>
+      <c r="H4036" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4037">
+      <c r="A4037" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4037" t="n">
+        <v>706</v>
+      </c>
+      <c r="D4037" t="n">
+        <v>4094</v>
+      </c>
+      <c r="E4037" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F4037" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4037" t="n">
+        <v>33989</v>
+      </c>
+      <c r="H4037" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4038">
+      <c r="A4038" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4038" t="n">
+        <v>259</v>
+      </c>
+      <c r="D4038" t="n">
+        <v>3632</v>
+      </c>
+      <c r="E4038" t="n">
+        <v>3891</v>
+      </c>
+      <c r="F4038" t="n">
+        <v>89</v>
+      </c>
+      <c r="G4038" t="n">
+        <v>31773</v>
+      </c>
+      <c r="H4038" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4039">
+      <c r="A4039" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4039" t="n">
+        <v>648</v>
+      </c>
+      <c r="D4039" t="n">
+        <v>5123</v>
+      </c>
+      <c r="E4039" t="n">
+        <v>5771</v>
+      </c>
+      <c r="F4039" t="n">
+        <v>278</v>
+      </c>
+      <c r="G4039" t="n">
+        <v>25938</v>
+      </c>
+      <c r="H4039" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4040">
+      <c r="A4040" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4040" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D4040" t="n">
+        <v>12845</v>
+      </c>
+      <c r="E4040" t="n">
+        <v>13846</v>
+      </c>
+      <c r="F4040" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4040" t="n">
+        <v>44667</v>
+      </c>
+      <c r="H4040" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4041" t="n">
+        <v>884</v>
+      </c>
+      <c r="D4041" t="n">
+        <v>5229</v>
+      </c>
+      <c r="E4041" t="n">
+        <v>6113</v>
+      </c>
+      <c r="F4041" t="n">
+        <v>129</v>
+      </c>
+      <c r="G4041" t="n">
+        <v>29779</v>
+      </c>
+      <c r="H4041" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4042" t="n">
+        <v>5438</v>
+      </c>
+      <c r="D4042" t="n">
+        <v>18595</v>
+      </c>
+      <c r="E4042" t="n">
+        <v>24033</v>
+      </c>
+      <c r="F4042" t="n">
+        <v>1224</v>
+      </c>
+      <c r="G4042" t="n">
+        <v>90945</v>
+      </c>
+      <c r="H4042" s="1" t="n">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="4043">
+      <c r="A4043" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4043" t="n">
+        <v>105770</v>
+      </c>
+      <c r="D4043" t="n">
+        <v>185979</v>
+      </c>
+      <c r="E4043" t="n">
+        <v>291749</v>
+      </c>
+      <c r="F4043" t="n">
+        <v>11859</v>
+      </c>
+      <c r="G4043" t="n">
+        <v>1438926</v>
+      </c>
+      <c r="H4043" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4044">
+      <c r="A4044" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4044" t="n">
+        <v>7068</v>
+      </c>
+      <c r="D4044" t="n">
+        <v>20990</v>
+      </c>
+      <c r="E4044" t="n">
+        <v>28058</v>
+      </c>
+      <c r="F4044" t="n">
+        <v>1592</v>
+      </c>
+      <c r="G4044" t="n">
+        <v>108062</v>
+      </c>
+      <c r="H4044" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4045">
+      <c r="A4045" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4045" t="n">
+        <v>3334</v>
+      </c>
+      <c r="D4045" t="n">
+        <v>19819</v>
+      </c>
+      <c r="E4045" t="n">
+        <v>23153</v>
+      </c>
+      <c r="F4045" t="n">
+        <v>2073</v>
+      </c>
+      <c r="G4045" t="n">
+        <v>117334</v>
+      </c>
+      <c r="H4045" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4046">
+      <c r="A4046" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4046" t="n">
+        <v>4467</v>
+      </c>
+      <c r="D4046" t="n">
+        <v>29553</v>
+      </c>
+      <c r="E4046" t="n">
+        <v>34020</v>
+      </c>
+      <c r="F4046" t="n">
+        <v>1186</v>
+      </c>
+      <c r="G4046" t="n">
+        <v>196202</v>
+      </c>
+      <c r="H4046" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4047">
+      <c r="A4047" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4047" t="n">
+        <v>426</v>
+      </c>
+      <c r="D4047" t="n">
+        <v>8925</v>
+      </c>
+      <c r="E4047" t="n">
+        <v>9351</v>
+      </c>
+      <c r="F4047" t="n">
+        <v>233</v>
+      </c>
+      <c r="G4047" t="n">
+        <v>58349</v>
+      </c>
+      <c r="H4047" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4048">
+      <c r="A4048" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4048" t="n">
+        <v>5397</v>
+      </c>
+      <c r="D4048" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E4048" t="n">
+        <v>15937</v>
+      </c>
+      <c r="F4048" t="n">
+        <v>339</v>
+      </c>
+      <c r="G4048" t="n">
+        <v>88175</v>
+      </c>
+      <c r="H4048" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4049">
+      <c r="A4049" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4049" t="n">
+        <v>2401</v>
+      </c>
+      <c r="D4049" t="n">
+        <v>20194</v>
+      </c>
+      <c r="E4049" t="n">
+        <v>22595</v>
+      </c>
+      <c r="F4049" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G4049" t="n">
+        <v>93562</v>
+      </c>
+      <c r="H4049" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4050">
+      <c r="A4050" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4050" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D4050" t="n">
+        <v>28652</v>
+      </c>
+      <c r="E4050" t="n">
+        <v>29674</v>
+      </c>
+      <c r="F4050" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G4050" t="n">
+        <v>114743</v>
+      </c>
+      <c r="H4050" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4051">
+      <c r="A4051" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4051" t="n">
+        <v>993</v>
+      </c>
+      <c r="D4051" t="n">
+        <v>10216</v>
+      </c>
+      <c r="E4051" t="n">
+        <v>11209</v>
+      </c>
+      <c r="F4051" t="n">
+        <v>192</v>
+      </c>
+      <c r="G4051" t="n">
+        <v>54932</v>
+      </c>
+      <c r="H4051" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4052">
+      <c r="A4052" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4052" t="n">
+        <v>3084</v>
+      </c>
+      <c r="D4052" t="n">
+        <v>18673</v>
+      </c>
+      <c r="E4052" t="n">
+        <v>21757</v>
+      </c>
+      <c r="F4052" t="n">
+        <v>1470</v>
+      </c>
+      <c r="G4052" t="n">
+        <v>106251</v>
+      </c>
+      <c r="H4052" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4053">
+      <c r="A4053" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4053" t="n">
+        <v>2099</v>
+      </c>
+      <c r="D4053" t="n">
+        <v>13405</v>
+      </c>
+      <c r="E4053" t="n">
+        <v>15504</v>
+      </c>
+      <c r="F4053" t="n">
+        <v>665</v>
+      </c>
+      <c r="G4053" t="n">
+        <v>89189</v>
+      </c>
+      <c r="H4053" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4054">
+      <c r="A4054" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4054" t="n">
+        <v>3535</v>
+      </c>
+      <c r="D4054" t="n">
+        <v>15444</v>
+      </c>
+      <c r="E4054" t="n">
+        <v>18979</v>
+      </c>
+      <c r="F4054" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G4054" t="n">
+        <v>97648</v>
+      </c>
+      <c r="H4054" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4055">
+      <c r="A4055" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4055" t="n">
+        <v>2631</v>
+      </c>
+      <c r="D4055" t="n">
+        <v>13181</v>
+      </c>
+      <c r="E4055" t="n">
+        <v>15812</v>
+      </c>
+      <c r="F4055" t="n">
+        <v>397</v>
+      </c>
+      <c r="G4055" t="n">
+        <v>85428</v>
+      </c>
+      <c r="H4055" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4056">
+      <c r="A4056" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4056" t="n">
+        <v>1296</v>
+      </c>
+      <c r="D4056" t="n">
+        <v>11488</v>
+      </c>
+      <c r="E4056" t="n">
+        <v>12784</v>
+      </c>
+      <c r="F4056" t="n">
+        <v>339</v>
+      </c>
+      <c r="G4056" t="n">
+        <v>63900</v>
+      </c>
+      <c r="H4056" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4057">
+      <c r="A4057" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4057" t="n">
+        <v>379</v>
+      </c>
+      <c r="D4057" t="n">
+        <v>2654</v>
+      </c>
+      <c r="E4057" t="n">
+        <v>3033</v>
+      </c>
+      <c r="F4057" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4057" t="n">
+        <v>38040</v>
+      </c>
+      <c r="H4057" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4058">
+      <c r="A4058" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4058" t="n">
+        <v>638</v>
+      </c>
+      <c r="D4058" t="n">
+        <v>8509</v>
+      </c>
+      <c r="E4058" t="n">
+        <v>9147</v>
+      </c>
+      <c r="F4058" t="n">
+        <v>243</v>
+      </c>
+      <c r="G4058" t="n">
+        <v>58919</v>
+      </c>
+      <c r="H4058" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4059">
+      <c r="A4059" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4059" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D4059" t="n">
+        <v>7587</v>
+      </c>
+      <c r="E4059" t="n">
+        <v>9023</v>
+      </c>
+      <c r="F4059" t="n">
+        <v>153</v>
+      </c>
+      <c r="G4059" t="n">
+        <v>54869</v>
+      </c>
+      <c r="H4059" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4060">
+      <c r="A4060" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4060" t="n">
+        <v>3156</v>
+      </c>
+      <c r="D4060" t="n">
+        <v>12899</v>
+      </c>
+      <c r="E4060" t="n">
+        <v>16055</v>
+      </c>
+      <c r="F4060" t="n">
+        <v>923</v>
+      </c>
+      <c r="G4060" t="n">
+        <v>50998</v>
+      </c>
+      <c r="H4060" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4061">
+      <c r="A4061" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4061" t="n">
+        <v>2413</v>
+      </c>
+      <c r="D4061" t="n">
+        <v>11688</v>
+      </c>
+      <c r="E4061" t="n">
+        <v>14101</v>
+      </c>
+      <c r="F4061" t="n">
+        <v>664</v>
+      </c>
+      <c r="G4061" t="n">
+        <v>64653</v>
+      </c>
+      <c r="H4061" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4062">
+      <c r="A4062" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4062" t="n">
+        <v>2187</v>
+      </c>
+      <c r="D4062" t="n">
+        <v>6425</v>
+      </c>
+      <c r="E4062" t="n">
+        <v>8612</v>
+      </c>
+      <c r="F4062" t="n">
+        <v>267</v>
+      </c>
+      <c r="G4062" t="n">
+        <v>44656</v>
+      </c>
+      <c r="H4062" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4063">
+      <c r="A4063" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4063" t="n">
+        <v>713</v>
+      </c>
+      <c r="D4063" t="n">
+        <v>4226</v>
+      </c>
+      <c r="E4063" t="n">
+        <v>4939</v>
+      </c>
+      <c r="F4063" t="n">
+        <v>86</v>
+      </c>
+      <c r="G4063" t="n">
+        <v>34681</v>
+      </c>
+      <c r="H4063" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4064">
+      <c r="A4064" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4064" t="n">
+        <v>259</v>
+      </c>
+      <c r="D4064" t="n">
+        <v>3719</v>
+      </c>
+      <c r="E4064" t="n">
+        <v>3978</v>
+      </c>
+      <c r="F4064" t="n">
+        <v>89</v>
+      </c>
+      <c r="G4064" t="n">
+        <v>32278</v>
+      </c>
+      <c r="H4064" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4065">
+      <c r="A4065" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4065" t="n">
+        <v>679</v>
+      </c>
+      <c r="D4065" t="n">
+        <v>5198</v>
+      </c>
+      <c r="E4065" t="n">
+        <v>5877</v>
+      </c>
+      <c r="F4065" t="n">
+        <v>280</v>
+      </c>
+      <c r="G4065" t="n">
+        <v>26331</v>
+      </c>
+      <c r="H4065" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4066">
+      <c r="A4066" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4066" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D4066" t="n">
+        <v>13091</v>
+      </c>
+      <c r="E4066" t="n">
+        <v>14094</v>
+      </c>
+      <c r="F4066" t="n">
+        <v>301</v>
+      </c>
+      <c r="G4066" t="n">
+        <v>45395</v>
+      </c>
+      <c r="H4066" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4067">
+      <c r="A4067" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4067" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4067" t="n">
+        <v>5393</v>
+      </c>
+      <c r="E4067" t="n">
+        <v>6293</v>
+      </c>
+      <c r="F4067" t="n">
+        <v>129</v>
+      </c>
+      <c r="G4067" t="n">
+        <v>30316</v>
+      </c>
+      <c r="H4067" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4068">
+      <c r="A4068" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4068" t="n">
+        <v>5478</v>
+      </c>
+      <c r="D4068" t="n">
+        <v>18933</v>
+      </c>
+      <c r="E4068" t="n">
+        <v>24411</v>
+      </c>
+      <c r="F4068" t="n">
+        <v>1241</v>
+      </c>
+      <c r="G4068" t="n">
+        <v>92689</v>
+      </c>
+      <c r="H4068" s="1" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="4069">
+      <c r="A4069" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4069" t="n">
+        <v>106589</v>
+      </c>
+      <c r="D4069" t="n">
+        <v>187631</v>
+      </c>
+      <c r="E4069" t="n">
+        <v>294220</v>
+      </c>
+      <c r="F4069" t="n">
+        <v>11921</v>
+      </c>
+      <c r="G4069" t="n">
+        <v>1452892</v>
+      </c>
+      <c r="H4069" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4070">
+      <c r="A4070" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4070" t="n">
+        <v>7084</v>
+      </c>
+      <c r="D4070" t="n">
+        <v>21123</v>
+      </c>
+      <c r="E4070" t="n">
+        <v>28207</v>
+      </c>
+      <c r="F4070" t="n">
+        <v>1596</v>
+      </c>
+      <c r="G4070" t="n">
+        <v>108870</v>
+      </c>
+      <c r="H4070" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4071">
+      <c r="A4071" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4071" t="n">
+        <v>3347</v>
+      </c>
+      <c r="D4071" t="n">
+        <v>19988</v>
+      </c>
+      <c r="E4071" t="n">
+        <v>23335</v>
+      </c>
+      <c r="F4071" t="n">
+        <v>2082</v>
+      </c>
+      <c r="G4071" t="n">
+        <v>118346</v>
+      </c>
+      <c r="H4071" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4072">
+      <c r="A4072" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4072" t="n">
+        <v>4486</v>
+      </c>
+      <c r="D4072" t="n">
+        <v>29933</v>
+      </c>
+      <c r="E4072" t="n">
+        <v>34419</v>
+      </c>
+      <c r="F4072" t="n">
+        <v>1193</v>
+      </c>
+      <c r="G4072" t="n">
+        <v>198643</v>
+      </c>
+      <c r="H4072" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4073">
+      <c r="A4073" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4073" t="n">
+        <v>430</v>
+      </c>
+      <c r="D4073" t="n">
+        <v>9077</v>
+      </c>
+      <c r="E4073" t="n">
+        <v>9507</v>
+      </c>
+      <c r="F4073" t="n">
+        <v>235</v>
+      </c>
+      <c r="G4073" t="n">
+        <v>58882</v>
+      </c>
+      <c r="H4073" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4074">
+      <c r="A4074" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4074" t="n">
+        <v>5406</v>
+      </c>
+      <c r="D4074" t="n">
+        <v>10740</v>
+      </c>
+      <c r="E4074" t="n">
+        <v>16146</v>
+      </c>
+      <c r="F4074" t="n">
+        <v>341</v>
+      </c>
+      <c r="G4074" t="n">
+        <v>89260</v>
+      </c>
+      <c r="H4074" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4075">
+      <c r="A4075" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4075" t="n">
+        <v>2411</v>
+      </c>
+      <c r="D4075" t="n">
+        <v>20287</v>
+      </c>
+      <c r="E4075" t="n">
+        <v>22698</v>
+      </c>
+      <c r="F4075" t="n">
+        <v>1602</v>
+      </c>
+      <c r="G4075" t="n">
+        <v>94223</v>
+      </c>
+      <c r="H4075" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4076">
+      <c r="A4076" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4076" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D4076" t="n">
+        <v>29056</v>
+      </c>
+      <c r="E4076" t="n">
+        <v>30079</v>
+      </c>
+      <c r="F4076" t="n">
+        <v>1845</v>
+      </c>
+      <c r="G4076" t="n">
+        <v>116340</v>
+      </c>
+      <c r="H4076" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4077">
+      <c r="A4077" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4077" t="n">
+        <v>993</v>
+      </c>
+      <c r="D4077" t="n">
+        <v>10327</v>
+      </c>
+      <c r="E4077" t="n">
+        <v>11320</v>
+      </c>
+      <c r="F4077" t="n">
+        <v>192</v>
+      </c>
+      <c r="G4077" t="n">
+        <v>55491</v>
+      </c>
+      <c r="H4077" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4078">
+      <c r="A4078" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4078" t="n">
+        <v>3099</v>
+      </c>
+      <c r="D4078" t="n">
+        <v>18907</v>
+      </c>
+      <c r="E4078" t="n">
+        <v>22006</v>
+      </c>
+      <c r="F4078" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G4078" t="n">
+        <v>107302</v>
+      </c>
+      <c r="H4078" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4079">
+      <c r="A4079" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4079" t="n">
+        <v>2111</v>
+      </c>
+      <c r="D4079" t="n">
+        <v>13581</v>
+      </c>
+      <c r="E4079" t="n">
+        <v>15692</v>
+      </c>
+      <c r="F4079" t="n">
+        <v>671</v>
+      </c>
+      <c r="G4079" t="n">
+        <v>90107</v>
+      </c>
+      <c r="H4079" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4080" t="n">
+        <v>3550</v>
+      </c>
+      <c r="D4080" t="n">
+        <v>15554</v>
+      </c>
+      <c r="E4080" t="n">
+        <v>19104</v>
+      </c>
+      <c r="F4080" t="n">
+        <v>1183</v>
+      </c>
+      <c r="G4080" t="n">
+        <v>98243</v>
+      </c>
+      <c r="H4080" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4081">
+      <c r="A4081" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4081" t="n">
+        <v>2638</v>
+      </c>
+      <c r="D4081" t="n">
+        <v>13443</v>
+      </c>
+      <c r="E4081" t="n">
+        <v>16081</v>
+      </c>
+      <c r="F4081" t="n">
+        <v>397</v>
+      </c>
+      <c r="G4081" t="n">
+        <v>86894</v>
+      </c>
+      <c r="H4081" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4082" t="n">
+        <v>1302</v>
+      </c>
+      <c r="D4082" t="n">
+        <v>11672</v>
+      </c>
+      <c r="E4082" t="n">
+        <v>12974</v>
+      </c>
+      <c r="F4082" t="n">
+        <v>344</v>
+      </c>
+      <c r="G4082" t="n">
+        <v>64789</v>
+      </c>
+      <c r="H4082" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4083" t="n">
+        <v>393</v>
+      </c>
+      <c r="D4083" t="n">
+        <v>2719</v>
+      </c>
+      <c r="E4083" t="n">
+        <v>3112</v>
+      </c>
+      <c r="F4083" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4083" t="n">
+        <v>38585</v>
+      </c>
+      <c r="H4083" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4084" t="n">
+        <v>650</v>
+      </c>
+      <c r="D4084" t="n">
+        <v>8724</v>
+      </c>
+      <c r="E4084" t="n">
+        <v>9374</v>
+      </c>
+      <c r="F4084" t="n">
+        <v>246</v>
+      </c>
+      <c r="G4084" t="n">
+        <v>59684</v>
+      </c>
+      <c r="H4084" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4085" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D4085" t="n">
+        <v>7772</v>
+      </c>
+      <c r="E4085" t="n">
+        <v>9217</v>
+      </c>
+      <c r="F4085" t="n">
+        <v>157</v>
+      </c>
+      <c r="G4085" t="n">
+        <v>55497</v>
+      </c>
+      <c r="H4085" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4086" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D4086" t="n">
+        <v>13036</v>
+      </c>
+      <c r="E4086" t="n">
+        <v>16196</v>
+      </c>
+      <c r="F4086" t="n">
+        <v>924</v>
+      </c>
+      <c r="G4086" t="n">
+        <v>51364</v>
+      </c>
+      <c r="H4086" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4087" t="n">
+        <v>2434</v>
+      </c>
+      <c r="D4087" t="n">
+        <v>11829</v>
+      </c>
+      <c r="E4087" t="n">
+        <v>14263</v>
+      </c>
+      <c r="F4087" t="n">
+        <v>665</v>
+      </c>
+      <c r="G4087" t="n">
+        <v>65246</v>
+      </c>
+      <c r="H4087" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4088" t="n">
+        <v>2197</v>
+      </c>
+      <c r="D4088" t="n">
+        <v>6552</v>
+      </c>
+      <c r="E4088" t="n">
+        <v>8749</v>
+      </c>
+      <c r="F4088" t="n">
+        <v>271</v>
+      </c>
+      <c r="G4088" t="n">
+        <v>45126</v>
+      </c>
+      <c r="H4088" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4089" t="n">
+        <v>713</v>
+      </c>
+      <c r="D4089" t="n">
+        <v>4303</v>
+      </c>
+      <c r="E4089" t="n">
+        <v>5016</v>
+      </c>
+      <c r="F4089" t="n">
+        <v>87</v>
+      </c>
+      <c r="G4089" t="n">
+        <v>35122</v>
+      </c>
+      <c r="H4089" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4090" t="n">
+        <v>263</v>
+      </c>
+      <c r="D4090" t="n">
+        <v>3776</v>
+      </c>
+      <c r="E4090" t="n">
+        <v>4039</v>
+      </c>
+      <c r="F4090" t="n">
+        <v>91</v>
+      </c>
+      <c r="G4090" t="n">
+        <v>32539</v>
+      </c>
+      <c r="H4090" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4091" t="n">
+        <v>680</v>
+      </c>
+      <c r="D4091" t="n">
+        <v>5228</v>
+      </c>
+      <c r="E4091" t="n">
+        <v>5908</v>
+      </c>
+      <c r="F4091" t="n">
+        <v>283</v>
+      </c>
+      <c r="G4091" t="n">
+        <v>26569</v>
+      </c>
+      <c r="H4091" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4092" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D4092" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E4092" t="n">
+        <v>14204</v>
+      </c>
+      <c r="F4092" t="n">
+        <v>301</v>
+      </c>
+      <c r="G4092" t="n">
+        <v>45700</v>
+      </c>
+      <c r="H4092" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4093" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4093" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E4093" t="n">
+        <v>6380</v>
+      </c>
+      <c r="F4093" t="n">
+        <v>131</v>
+      </c>
+      <c r="G4093" t="n">
+        <v>30613</v>
+      </c>
+      <c r="H4093" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4094" t="n">
+        <v>5483</v>
+      </c>
+      <c r="D4094" t="n">
+        <v>19119</v>
+      </c>
+      <c r="E4094" t="n">
+        <v>24602</v>
+      </c>
+      <c r="F4094" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G4094" t="n">
+        <v>93685</v>
+      </c>
+      <c r="H4094" s="1" t="n">
+        <v>44078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/ReporteMinsaDepartamento.xlsx
+++ b/ReporteMinsaDepartamento.xlsx
@@ -103815,6 +103815,1358 @@
         <v>44078</v>
       </c>
     </row>
+    <row r="4095">
+      <c r="A4095" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4095" t="n">
+        <v>107563</v>
+      </c>
+      <c r="D4095" t="n">
+        <v>189192</v>
+      </c>
+      <c r="E4095" t="n">
+        <v>296755</v>
+      </c>
+      <c r="F4095" t="n">
+        <v>11989</v>
+      </c>
+      <c r="G4095" t="n">
+        <v>1466082</v>
+      </c>
+      <c r="H4095" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4096" t="n">
+        <v>7113</v>
+      </c>
+      <c r="D4096" t="n">
+        <v>21293</v>
+      </c>
+      <c r="E4096" t="n">
+        <v>28406</v>
+      </c>
+      <c r="F4096" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G4096" t="n">
+        <v>109819</v>
+      </c>
+      <c r="H4096" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4097" t="n">
+        <v>3371</v>
+      </c>
+      <c r="D4097" t="n">
+        <v>20150</v>
+      </c>
+      <c r="E4097" t="n">
+        <v>23521</v>
+      </c>
+      <c r="F4097" t="n">
+        <v>2091</v>
+      </c>
+      <c r="G4097" t="n">
+        <v>119408</v>
+      </c>
+      <c r="H4097" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4098" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D4098" t="n">
+        <v>30285</v>
+      </c>
+      <c r="E4098" t="n">
+        <v>34785</v>
+      </c>
+      <c r="F4098" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G4098" t="n">
+        <v>200867</v>
+      </c>
+      <c r="H4098" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4099" t="n">
+        <v>430</v>
+      </c>
+      <c r="D4099" t="n">
+        <v>9231</v>
+      </c>
+      <c r="E4099" t="n">
+        <v>9661</v>
+      </c>
+      <c r="F4099" t="n">
+        <v>237</v>
+      </c>
+      <c r="G4099" t="n">
+        <v>59357</v>
+      </c>
+      <c r="H4099" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4100" t="n">
+        <v>5473</v>
+      </c>
+      <c r="D4100" t="n">
+        <v>10962</v>
+      </c>
+      <c r="E4100" t="n">
+        <v>16435</v>
+      </c>
+      <c r="F4100" t="n">
+        <v>342</v>
+      </c>
+      <c r="G4100" t="n">
+        <v>90499</v>
+      </c>
+      <c r="H4100" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4101" t="n">
+        <v>2430</v>
+      </c>
+      <c r="D4101" t="n">
+        <v>20433</v>
+      </c>
+      <c r="E4101" t="n">
+        <v>22863</v>
+      </c>
+      <c r="F4101" t="n">
+        <v>1606</v>
+      </c>
+      <c r="G4101" t="n">
+        <v>94828</v>
+      </c>
+      <c r="H4101" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4102">
+      <c r="A4102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4102" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D4102" t="n">
+        <v>29398</v>
+      </c>
+      <c r="E4102" t="n">
+        <v>30422</v>
+      </c>
+      <c r="F4102" t="n">
+        <v>1848</v>
+      </c>
+      <c r="G4102" t="n">
+        <v>117611</v>
+      </c>
+      <c r="H4102" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4103">
+      <c r="A4103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4103" t="n">
+        <v>993</v>
+      </c>
+      <c r="D4103" t="n">
+        <v>10485</v>
+      </c>
+      <c r="E4103" t="n">
+        <v>11478</v>
+      </c>
+      <c r="F4103" t="n">
+        <v>192</v>
+      </c>
+      <c r="G4103" t="n">
+        <v>56441</v>
+      </c>
+      <c r="H4103" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4104">
+      <c r="A4104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4104" t="n">
+        <v>3143</v>
+      </c>
+      <c r="D4104" t="n">
+        <v>19200</v>
+      </c>
+      <c r="E4104" t="n">
+        <v>22343</v>
+      </c>
+      <c r="F4104" t="n">
+        <v>1484</v>
+      </c>
+      <c r="G4104" t="n">
+        <v>108999</v>
+      </c>
+      <c r="H4104" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4105">
+      <c r="A4105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4105" t="n">
+        <v>2114</v>
+      </c>
+      <c r="D4105" t="n">
+        <v>13773</v>
+      </c>
+      <c r="E4105" t="n">
+        <v>15887</v>
+      </c>
+      <c r="F4105" t="n">
+        <v>678</v>
+      </c>
+      <c r="G4105" t="n">
+        <v>90960</v>
+      </c>
+      <c r="H4105" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4106">
+      <c r="A4106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4106" t="n">
+        <v>3574</v>
+      </c>
+      <c r="D4106" t="n">
+        <v>15659</v>
+      </c>
+      <c r="E4106" t="n">
+        <v>19233</v>
+      </c>
+      <c r="F4106" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G4106" t="n">
+        <v>99239</v>
+      </c>
+      <c r="H4106" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4107">
+      <c r="A4107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4107" t="n">
+        <v>2675</v>
+      </c>
+      <c r="D4107" t="n">
+        <v>13650</v>
+      </c>
+      <c r="E4107" t="n">
+        <v>16325</v>
+      </c>
+      <c r="F4107" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4107" t="n">
+        <v>88048</v>
+      </c>
+      <c r="H4107" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4108">
+      <c r="A4108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4108" t="n">
+        <v>1303</v>
+      </c>
+      <c r="D4108" t="n">
+        <v>11822</v>
+      </c>
+      <c r="E4108" t="n">
+        <v>13125</v>
+      </c>
+      <c r="F4108" t="n">
+        <v>344</v>
+      </c>
+      <c r="G4108" t="n">
+        <v>65688</v>
+      </c>
+      <c r="H4108" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4109">
+      <c r="A4109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4109" t="n">
+        <v>394</v>
+      </c>
+      <c r="D4109" t="n">
+        <v>2854</v>
+      </c>
+      <c r="E4109" t="n">
+        <v>3248</v>
+      </c>
+      <c r="F4109" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4109" t="n">
+        <v>39565</v>
+      </c>
+      <c r="H4109" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4110">
+      <c r="A4110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4110" t="n">
+        <v>650</v>
+      </c>
+      <c r="D4110" t="n">
+        <v>8918</v>
+      </c>
+      <c r="E4110" t="n">
+        <v>9568</v>
+      </c>
+      <c r="F4110" t="n">
+        <v>250</v>
+      </c>
+      <c r="G4110" t="n">
+        <v>60392</v>
+      </c>
+      <c r="H4110" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4111">
+      <c r="A4111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4111" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D4111" t="n">
+        <v>7856</v>
+      </c>
+      <c r="E4111" t="n">
+        <v>9307</v>
+      </c>
+      <c r="F4111" t="n">
+        <v>159</v>
+      </c>
+      <c r="G4111" t="n">
+        <v>55907</v>
+      </c>
+      <c r="H4111" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4112">
+      <c r="A4112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4112" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D4112" t="n">
+        <v>13149</v>
+      </c>
+      <c r="E4112" t="n">
+        <v>16309</v>
+      </c>
+      <c r="F4112" t="n">
+        <v>927</v>
+      </c>
+      <c r="G4112" t="n">
+        <v>51673</v>
+      </c>
+      <c r="H4112" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4113">
+      <c r="A4113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4113" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D4113" t="n">
+        <v>11940</v>
+      </c>
+      <c r="E4113" t="n">
+        <v>14384</v>
+      </c>
+      <c r="F4113" t="n">
+        <v>665</v>
+      </c>
+      <c r="G4113" t="n">
+        <v>65605</v>
+      </c>
+      <c r="H4113" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4114">
+      <c r="A4114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4114" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D4114" t="n">
+        <v>6705</v>
+      </c>
+      <c r="E4114" t="n">
+        <v>8932</v>
+      </c>
+      <c r="F4114" t="n">
+        <v>273</v>
+      </c>
+      <c r="G4114" t="n">
+        <v>45715</v>
+      </c>
+      <c r="H4114" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4115">
+      <c r="A4115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4115" t="n">
+        <v>719</v>
+      </c>
+      <c r="D4115" t="n">
+        <v>4447</v>
+      </c>
+      <c r="E4115" t="n">
+        <v>5166</v>
+      </c>
+      <c r="F4115" t="n">
+        <v>88</v>
+      </c>
+      <c r="G4115" t="n">
+        <v>35731</v>
+      </c>
+      <c r="H4115" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4116">
+      <c r="A4116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4116" t="n">
+        <v>263</v>
+      </c>
+      <c r="D4116" t="n">
+        <v>3839</v>
+      </c>
+      <c r="E4116" t="n">
+        <v>4102</v>
+      </c>
+      <c r="F4116" t="n">
+        <v>91</v>
+      </c>
+      <c r="G4116" t="n">
+        <v>32889</v>
+      </c>
+      <c r="H4116" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4117">
+      <c r="A4117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4117" t="n">
+        <v>680</v>
+      </c>
+      <c r="D4117" t="n">
+        <v>5268</v>
+      </c>
+      <c r="E4117" t="n">
+        <v>5948</v>
+      </c>
+      <c r="F4117" t="n">
+        <v>283</v>
+      </c>
+      <c r="G4117" t="n">
+        <v>26780</v>
+      </c>
+      <c r="H4117" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4118">
+      <c r="A4118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4118" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D4118" t="n">
+        <v>13315</v>
+      </c>
+      <c r="E4118" t="n">
+        <v>14319</v>
+      </c>
+      <c r="F4118" t="n">
+        <v>302</v>
+      </c>
+      <c r="G4118" t="n">
+        <v>46065</v>
+      </c>
+      <c r="H4118" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4119">
+      <c r="A4119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4119" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4119" t="n">
+        <v>5518</v>
+      </c>
+      <c r="E4119" t="n">
+        <v>6418</v>
+      </c>
+      <c r="F4119" t="n">
+        <v>131</v>
+      </c>
+      <c r="G4119" t="n">
+        <v>30750</v>
+      </c>
+      <c r="H4119" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4120">
+      <c r="A4120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4120" t="n">
+        <v>5513</v>
+      </c>
+      <c r="D4120" t="n">
+        <v>19249</v>
+      </c>
+      <c r="E4120" t="n">
+        <v>24762</v>
+      </c>
+      <c r="F4120" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G4120" t="n">
+        <v>94517</v>
+      </c>
+      <c r="H4120" s="1" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4121">
+      <c r="A4121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4121" t="n">
+        <v>108292</v>
+      </c>
+      <c r="D4121" t="n">
+        <v>190622</v>
+      </c>
+      <c r="E4121" t="n">
+        <v>298914</v>
+      </c>
+      <c r="F4121" t="n">
+        <v>12054</v>
+      </c>
+      <c r="G4121" t="n">
+        <v>1475932</v>
+      </c>
+      <c r="H4121" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4122">
+      <c r="A4122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4122" t="n">
+        <v>7140</v>
+      </c>
+      <c r="D4122" t="n">
+        <v>21467</v>
+      </c>
+      <c r="E4122" t="n">
+        <v>28607</v>
+      </c>
+      <c r="F4122" t="n">
+        <v>1608</v>
+      </c>
+      <c r="G4122" t="n">
+        <v>110458</v>
+      </c>
+      <c r="H4122" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4123" t="n">
+        <v>3389</v>
+      </c>
+      <c r="D4123" t="n">
+        <v>20345</v>
+      </c>
+      <c r="E4123" t="n">
+        <v>23734</v>
+      </c>
+      <c r="F4123" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G4123" t="n">
+        <v>120049</v>
+      </c>
+      <c r="H4123" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4124" t="n">
+        <v>4504</v>
+      </c>
+      <c r="D4124" t="n">
+        <v>30649</v>
+      </c>
+      <c r="E4124" t="n">
+        <v>35153</v>
+      </c>
+      <c r="F4124" t="n">
+        <v>1205</v>
+      </c>
+      <c r="G4124" t="n">
+        <v>202341</v>
+      </c>
+      <c r="H4124" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4125" t="n">
+        <v>430</v>
+      </c>
+      <c r="D4125" t="n">
+        <v>9339</v>
+      </c>
+      <c r="E4125" t="n">
+        <v>9769</v>
+      </c>
+      <c r="F4125" t="n">
+        <v>238</v>
+      </c>
+      <c r="G4125" t="n">
+        <v>59632</v>
+      </c>
+      <c r="H4125" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4126" t="n">
+        <v>5509</v>
+      </c>
+      <c r="D4126" t="n">
+        <v>11171</v>
+      </c>
+      <c r="E4126" t="n">
+        <v>16680</v>
+      </c>
+      <c r="F4126" t="n">
+        <v>349</v>
+      </c>
+      <c r="G4126" t="n">
+        <v>91400</v>
+      </c>
+      <c r="H4126" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4127" t="n">
+        <v>2450</v>
+      </c>
+      <c r="D4127" t="n">
+        <v>20578</v>
+      </c>
+      <c r="E4127" t="n">
+        <v>23028</v>
+      </c>
+      <c r="F4127" t="n">
+        <v>1610</v>
+      </c>
+      <c r="G4127" t="n">
+        <v>95361</v>
+      </c>
+      <c r="H4127" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4128" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D4128" t="n">
+        <v>29647</v>
+      </c>
+      <c r="E4128" t="n">
+        <v>30672</v>
+      </c>
+      <c r="F4128" t="n">
+        <v>1853</v>
+      </c>
+      <c r="G4128" t="n">
+        <v>118451</v>
+      </c>
+      <c r="H4128" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4129" t="n">
+        <v>993</v>
+      </c>
+      <c r="D4129" t="n">
+        <v>10618</v>
+      </c>
+      <c r="E4129" t="n">
+        <v>11611</v>
+      </c>
+      <c r="F4129" t="n">
+        <v>194</v>
+      </c>
+      <c r="G4129" t="n">
+        <v>57494</v>
+      </c>
+      <c r="H4129" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4130" t="n">
+        <v>3168</v>
+      </c>
+      <c r="D4130" t="n">
+        <v>19497</v>
+      </c>
+      <c r="E4130" t="n">
+        <v>22665</v>
+      </c>
+      <c r="F4130" t="n">
+        <v>1486</v>
+      </c>
+      <c r="G4130" t="n">
+        <v>110224</v>
+      </c>
+      <c r="H4130" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4131" t="n">
+        <v>2114</v>
+      </c>
+      <c r="D4131" t="n">
+        <v>13963</v>
+      </c>
+      <c r="E4131" t="n">
+        <v>16077</v>
+      </c>
+      <c r="F4131" t="n">
+        <v>682</v>
+      </c>
+      <c r="G4131" t="n">
+        <v>91820</v>
+      </c>
+      <c r="H4131" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4132" t="n">
+        <v>3603</v>
+      </c>
+      <c r="D4132" t="n">
+        <v>15791</v>
+      </c>
+      <c r="E4132" t="n">
+        <v>19394</v>
+      </c>
+      <c r="F4132" t="n">
+        <v>1197</v>
+      </c>
+      <c r="G4132" t="n">
+        <v>99905</v>
+      </c>
+      <c r="H4132" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4133" t="n">
+        <v>2692</v>
+      </c>
+      <c r="D4133" t="n">
+        <v>13783</v>
+      </c>
+      <c r="E4133" t="n">
+        <v>16475</v>
+      </c>
+      <c r="F4133" t="n">
+        <v>403</v>
+      </c>
+      <c r="G4133" t="n">
+        <v>88728</v>
+      </c>
+      <c r="H4133" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4134" t="n">
+        <v>1303</v>
+      </c>
+      <c r="D4134" t="n">
+        <v>11982</v>
+      </c>
+      <c r="E4134" t="n">
+        <v>13285</v>
+      </c>
+      <c r="F4134" t="n">
+        <v>346</v>
+      </c>
+      <c r="G4134" t="n">
+        <v>66202</v>
+      </c>
+      <c r="H4134" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4135" t="n">
+        <v>394</v>
+      </c>
+      <c r="D4135" t="n">
+        <v>2960</v>
+      </c>
+      <c r="E4135" t="n">
+        <v>3354</v>
+      </c>
+      <c r="F4135" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4135" t="n">
+        <v>41182</v>
+      </c>
+      <c r="H4135" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4136" t="n">
+        <v>650</v>
+      </c>
+      <c r="D4136" t="n">
+        <v>9156</v>
+      </c>
+      <c r="E4136" t="n">
+        <v>9806</v>
+      </c>
+      <c r="F4136" t="n">
+        <v>256</v>
+      </c>
+      <c r="G4136" t="n">
+        <v>61115</v>
+      </c>
+      <c r="H4136" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4137" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D4137" t="n">
+        <v>8061</v>
+      </c>
+      <c r="E4137" t="n">
+        <v>9519</v>
+      </c>
+      <c r="F4137" t="n">
+        <v>163</v>
+      </c>
+      <c r="G4137" t="n">
+        <v>56412</v>
+      </c>
+      <c r="H4137" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4138" t="n">
+        <v>3169</v>
+      </c>
+      <c r="D4138" t="n">
+        <v>13315</v>
+      </c>
+      <c r="E4138" t="n">
+        <v>16484</v>
+      </c>
+      <c r="F4138" t="n">
+        <v>929</v>
+      </c>
+      <c r="G4138" t="n">
+        <v>52075</v>
+      </c>
+      <c r="H4138" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4139" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D4139" t="n">
+        <v>12120</v>
+      </c>
+      <c r="E4139" t="n">
+        <v>14589</v>
+      </c>
+      <c r="F4139" t="n">
+        <v>669</v>
+      </c>
+      <c r="G4139" t="n">
+        <v>66085</v>
+      </c>
+      <c r="H4139" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4140" t="n">
+        <v>2235</v>
+      </c>
+      <c r="D4140" t="n">
+        <v>6837</v>
+      </c>
+      <c r="E4140" t="n">
+        <v>9072</v>
+      </c>
+      <c r="F4140" t="n">
+        <v>276</v>
+      </c>
+      <c r="G4140" t="n">
+        <v>46331</v>
+      </c>
+      <c r="H4140" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4141" t="n">
+        <v>719</v>
+      </c>
+      <c r="D4141" t="n">
+        <v>4479</v>
+      </c>
+      <c r="E4141" t="n">
+        <v>5198</v>
+      </c>
+      <c r="F4141" t="n">
+        <v>89</v>
+      </c>
+      <c r="G4141" t="n">
+        <v>35916</v>
+      </c>
+      <c r="H4141" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4142" t="n">
+        <v>270</v>
+      </c>
+      <c r="D4142" t="n">
+        <v>3882</v>
+      </c>
+      <c r="E4142" t="n">
+        <v>4152</v>
+      </c>
+      <c r="F4142" t="n">
+        <v>92</v>
+      </c>
+      <c r="G4142" t="n">
+        <v>33240</v>
+      </c>
+      <c r="H4142" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4143" t="n">
+        <v>680</v>
+      </c>
+      <c r="D4143" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E4143" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F4143" t="n">
+        <v>283</v>
+      </c>
+      <c r="G4143" t="n">
+        <v>26916</v>
+      </c>
+      <c r="H4143" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4144" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D4144" t="n">
+        <v>13385</v>
+      </c>
+      <c r="E4144" t="n">
+        <v>14389</v>
+      </c>
+      <c r="F4144" t="n">
+        <v>302</v>
+      </c>
+      <c r="G4144" t="n">
+        <v>46280</v>
+      </c>
+      <c r="H4144" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4145" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4145" t="n">
+        <v>5592</v>
+      </c>
+      <c r="E4145" t="n">
+        <v>6492</v>
+      </c>
+      <c r="F4145" t="n">
+        <v>131</v>
+      </c>
+      <c r="G4145" t="n">
+        <v>30966</v>
+      </c>
+      <c r="H4145" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4146" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4146" t="n">
+        <v>5525</v>
+      </c>
+      <c r="D4146" t="n">
+        <v>19353</v>
+      </c>
+      <c r="E4146" t="n">
+        <v>24878</v>
+      </c>
+      <c r="F4146" t="n">
+        <v>1258</v>
+      </c>
+      <c r="G4146" t="n">
+        <v>95065</v>
+      </c>
+      <c r="H4146" s="1" t="n">
+        <v>44080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
